--- a/Group 3 project.xlsx
+++ b/Group 3 project.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Desktop\projectH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EB225D-8700-4CF6-B38D-2F0B442B3ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B84A6A-2F52-4B13-8C33-57CD540E3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="טבלת דרישות" sheetId="1" r:id="rId1"/>
     <sheet name="תסריטי בדיקה" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'טבלת דרישות'!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'טבלת דרישות'!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="316">
   <si>
     <t>דרישת אב</t>
   </si>
@@ -1151,6 +1151,123 @@
   </si>
   <si>
     <t>אין קבלת הודעה</t>
+  </si>
+  <si>
+    <t>פונקציה זו מאפשרת למשתמש  לארשופ לראות את פירוט של משפחות החיות הנמכרות</t>
+  </si>
+  <si>
+    <t>אם משתמש לא רשום ילחץ על חיה מסוימת הוא יראה את פירוטה</t>
+  </si>
+  <si>
+    <t>ראיה של פירוט החיות</t>
+  </si>
+  <si>
+    <t>מטרת הבדיקה היא לוודא שמשתמש לא רשום יוכל לראות את פירוט של החיות</t>
+  </si>
+  <si>
+    <t>פונצקיה זו מאפשרת למשתמש לא רשום לחפש באתר</t>
+  </si>
+  <si>
+    <t>אם משתמש לא רשום יחפש חיה מסוימת הוא יוכל למצא אותה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חיפוש חיה </t>
+  </si>
+  <si>
+    <t>מטרת הבדיקה היא לוודא שאפשר לחפש חיות דרך חיפוש למשתמש לא רשום</t>
+  </si>
+  <si>
+    <t>מסך כניסה לאתר</t>
+  </si>
+  <si>
+    <t>אם משתמש רשום יכנס לאתר עם שם וסיסמא תקינים אז הוא יוכל להיכנס לאתר בהצלחה</t>
+  </si>
+  <si>
+    <t>כניסה לאתר עם שם וסיסמא תקינים</t>
+  </si>
+  <si>
+    <t>פונצקיה זו מאפשרת להכנס לאתר עם שם משתמש וסיסמא תקינים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מסך רישום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">פונצקיה זו מאפשרת למשתמש לא רשום להיכנס למסך רישום במידה ועדיין לא נרשם </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם משתמש לא רשום יכנס למסך רישום אז הוא יכול להירשם במידה ועדיין לא נרשם </t>
+  </si>
+  <si>
+    <t>מסך קטגוריה</t>
+  </si>
+  <si>
+    <t>sign out</t>
+  </si>
+  <si>
+    <t>פונקציה זו מאפשרת למשתמש רשום לבצע sign out</t>
+  </si>
+  <si>
+    <t>אם משתמש רשום ילחץ על sign out הוא יבצע יציאה</t>
+  </si>
+  <si>
+    <t>יציאה מהאתר</t>
+  </si>
+  <si>
+    <t>מטרת הבדיקה היא לוודא שאפשר לצאת מהאתר למשתמש רשום ולעשות sign  out</t>
+  </si>
+  <si>
+    <t>מטרת התסריט היא לוודא שמשתמש לא רשום יוכל ללראות את פירוט של החיות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לחיצה על פירוט החיות </t>
+  </si>
+  <si>
+    <t>רואים את פירוט החיות</t>
+  </si>
+  <si>
+    <t>מטרת התסריט היא לוודא שמשתמש לא רשום יוכל לחפש באתר</t>
+  </si>
+  <si>
+    <t>לחיצה על חיפוש</t>
+  </si>
+  <si>
+    <t>רואים את פירוט החיות חלקית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת הבדיקה היא לוודא שאפשר להיכנס לאתר עם שם משתמש וסיסמא תקינים למשתמש רשום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת התסריט היא לוודא שאפשר להיכנס לאתר עם שם משתמש וסיסמא תקינים למשתמש רשום </t>
+  </si>
+  <si>
+    <t>לחיצה על login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם המשתמש כבר רשום אי אפשר להיכנס פעמיים </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת הבדיקה היא לוודא שאפשר להיכנס למסך רישום ולהירשם במידה ועדיין לא נרשם למשתמש לא רשום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת התסריט היא לוודא שאפשר להיכנס למסך רישום ולהירשם במידה ועדיין לא נרשם למשתמש לא רשום </t>
+  </si>
+  <si>
+    <t xml:space="preserve">לחיצה על sign up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">טופס רישום </t>
+  </si>
+  <si>
+    <t>נכנסים דרך היוזר החדש והכל עובד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת התסריט היא לוודא שאפשר לצאת מהאתר למשתמש רשום ולעשות sign out </t>
+  </si>
+  <si>
+    <t>לחיצה על sign out</t>
+  </si>
+  <si>
+    <t>יציאה מהיוזר</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,6 +1515,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB917BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85BB19"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2045,6 +2180,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,12 +2273,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2152,6 +2302,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,6 +2329,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF85BB19"/>
+      <color rgb="FFB917BD"/>
       <color rgb="FFE91FD1"/>
       <color rgb="FFDEA400"/>
       <color rgb="FF8D42C6"/>
@@ -2475,30 +2645,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="18.3" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" customWidth="1"/>
     <col min="3" max="3" width="16" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="39.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36.84765625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.84765625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="39.09765625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.84765625" style="6" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="36.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.09765625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" style="6" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="11.625" style="5"/>
+    <col min="12" max="16384" width="11.59765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="27" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="27" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2530,17 +2700,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:10" s="34" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="91">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="91" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="31">
@@ -2562,11 +2732,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="34" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+    <row r="3" spans="1:10" s="34" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="104"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="35">
         <v>1.2</v>
       </c>
@@ -2586,15 +2756,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="34" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="85">
+    <row r="4" spans="1:10" s="34" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="104"/>
+      <c r="B4" s="92">
         <v>2</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="92" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="25">
@@ -2616,11 +2786,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="34" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+    <row r="5" spans="1:10" s="34" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="104"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="25">
         <v>2.2000000000000002</v>
       </c>
@@ -2640,15 +2810,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98">
+    <row r="6" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105">
         <v>3</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="105" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="26">
@@ -2670,11 +2840,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
+    <row r="7" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="104"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="26">
         <v>3.2</v>
       </c>
@@ -2694,15 +2864,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="82">
+    <row r="8" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="104"/>
+      <c r="B8" s="89">
         <v>4</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="89" t="s">
         <v>129</v>
       </c>
       <c r="E8" s="41">
@@ -2724,11 +2894,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
+    <row r="9" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="104"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="41">
         <v>4.2</v>
       </c>
@@ -2748,15 +2918,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="87">
+    <row r="10" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="104"/>
+      <c r="B10" s="94">
         <v>5</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="94" t="s">
         <v>136</v>
       </c>
       <c r="E10" s="53">
@@ -2778,11 +2948,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+    <row r="11" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="104"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="53">
         <v>5.2</v>
       </c>
@@ -2802,8 +2972,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+    <row r="12" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="104"/>
       <c r="B12" s="57">
         <v>6</v>
       </c>
@@ -2832,15 +3002,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="94">
+    <row r="13" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="104"/>
+      <c r="B13" s="101">
         <v>7</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="101" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="55">
@@ -2862,11 +3032,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+    <row r="14" spans="1:10" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="104"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="55">
         <v>7.2</v>
       </c>
@@ -2886,17 +3056,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+    <row r="15" spans="1:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="86">
         <v>8</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="86" t="s">
         <v>95</v>
       </c>
       <c r="E15" s="48">
@@ -2918,11 +3088,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+    <row r="16" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="108"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="48">
         <v>8.1999999999999993</v>
       </c>
@@ -2942,15 +3112,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="110">
+    <row r="17" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="108"/>
+      <c r="B17" s="115">
         <v>9</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="110" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="50">
@@ -2972,11 +3142,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="106"/>
+    <row r="18" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="108"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="50">
         <v>9.1999999999999993</v>
       </c>
@@ -2996,15 +3166,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="109">
+    <row r="19" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="108"/>
+      <c r="B19" s="114">
         <v>10</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="112" t="s">
         <v>184</v>
       </c>
       <c r="E19" s="59">
@@ -3026,11 +3196,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="108"/>
+    <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="108"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="59">
         <v>10.199999999999999</v>
       </c>
@@ -3050,15 +3220,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="109">
+    <row r="21" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="108"/>
+      <c r="B21" s="114">
         <v>11</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="112" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="59">
@@ -3083,11 +3253,11 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="108"/>
+    <row r="22" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="109"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="59">
         <v>11.2</v>
       </c>
@@ -3107,17 +3277,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+    <row r="23" spans="1:12" s="34" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="97">
         <v>12</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="97" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="39">
@@ -3139,11 +3309,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="34" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
+    <row r="24" spans="1:12" s="34" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="85"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="39">
         <v>12.2</v>
       </c>
@@ -3163,15 +3333,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="34" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="89">
+    <row r="25" spans="1:12" s="34" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="85"/>
+      <c r="B25" s="96">
         <v>13</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="96" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="41">
@@ -3193,11 +3363,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+    <row r="26" spans="1:12" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="85"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="41">
         <v>13.2</v>
       </c>
@@ -3217,11 +3387,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+    <row r="27" spans="1:12" s="34" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="85"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="41">
         <v>13.3</v>
       </c>
@@ -3241,15 +3411,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="34" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="92">
+    <row r="28" spans="1:12" s="34" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="85"/>
+      <c r="B28" s="99">
         <v>14</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="99" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="43">
@@ -3271,11 +3441,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+    <row r="29" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="85"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
       <c r="E29" s="66">
         <v>14.2</v>
       </c>
@@ -3295,17 +3465,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="111" t="s">
+    <row r="30" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="112">
+      <c r="B30" s="117">
         <v>15</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="112" t="s">
+      <c r="D30" s="117" t="s">
         <v>233</v>
       </c>
       <c r="E30" s="70">
@@ -3326,16 +3496,16 @@
       <c r="J30" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="81" t="s">
+      <c r="K30" s="88" t="s">
         <v>262</v>
       </c>
       <c r="L30" s="77"/>
     </row>
-    <row r="31" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
+    <row r="31" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
       <c r="E31" s="70">
         <v>14.4</v>
       </c>
@@ -3354,10 +3524,10 @@
       <c r="J31" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="81"/>
+      <c r="K31" s="88"/>
       <c r="L31" s="77"/>
     </row>
-    <row r="32" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A32" s="68" t="s">
         <v>241</v>
       </c>
@@ -3392,7 +3562,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A33" s="68" t="s">
         <v>247</v>
       </c>
@@ -3427,7 +3597,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A34" s="68" t="s">
         <v>254</v>
       </c>
@@ -3462,17 +3632,175 @@
         <v>263</v>
       </c>
     </row>
+    <row r="35" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A35" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="80">
+        <v>19</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="81">
+        <v>18</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="81">
+        <v>93</v>
+      </c>
+      <c r="H35" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="78"/>
+    </row>
+    <row r="36" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A36" s="85"/>
+      <c r="B36" s="82">
+        <v>20</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="83">
+        <v>19</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="83">
+        <v>94</v>
+      </c>
+      <c r="H36" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" s="82" t="s">
+        <v>284</v>
+      </c>
+      <c r="J36" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="K36" s="78"/>
+    </row>
+    <row r="37" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A37" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="120">
+        <v>21</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="121">
+        <v>20</v>
+      </c>
+      <c r="F37" s="120" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="121">
+        <v>95</v>
+      </c>
+      <c r="H37" s="120" t="s">
+        <v>287</v>
+      </c>
+      <c r="I37" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="J37" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="78"/>
+    </row>
+    <row r="38" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A38" s="85"/>
+      <c r="B38" s="122">
+        <v>22</v>
+      </c>
+      <c r="C38" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="123">
+        <v>21</v>
+      </c>
+      <c r="F38" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="123">
+        <v>96</v>
+      </c>
+      <c r="H38" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="122" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="K38" s="78"/>
+    </row>
+    <row r="39" spans="1:11" s="34" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A39" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="124">
+        <v>23</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="125">
+        <v>22</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="125">
+        <v>97</v>
+      </c>
+      <c r="H39" s="124" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" s="124" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="78"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B25:B27"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
@@ -3480,37 +3808,42 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C25:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3519,46 +3852,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H584"/>
+  <dimension ref="B2:H674"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A556" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D573" sqref="D573"/>
+    <sheetView rightToLeft="1" topLeftCell="A656" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G669" sqref="G669"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="6"/>
+    <col min="1" max="1" width="11.59765625" style="6"/>
     <col min="2" max="2" width="20.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="6"/>
+    <col min="8" max="8" width="11.59765625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="11.59765625" style="6"/>
     <col min="11" max="11" width="17.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.34765625" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.625" style="6"/>
+    <col min="14" max="16384" width="11.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+    <row r="2" spans="2:8" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="B2" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -3567,8 +3900,8 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B5" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3585,12 +3918,12 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="113"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B6" s="118"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
+    <row r="7" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B7" s="118"/>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
@@ -3605,12 +3938,12 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="113"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B8" s="118"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="113"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B9" s="118"/>
       <c r="C9" s="10" t="s">
         <v>10</v>
       </c>
@@ -3625,12 +3958,12 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="113"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B10" s="118"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="113"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B11" s="118"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3645,7 +3978,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -3654,7 +3987,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3663,8 +3996,8 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="113" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B14" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3681,8 +4014,8 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="113"/>
+    <row r="15" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B15" s="118"/>
       <c r="D15" s="20">
         <v>1</v>
       </c>
@@ -3697,15 +4030,15 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="113"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B16" s="118"/>
       <c r="D16" s="20"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B17" s="45"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -3714,9 +4047,9 @@
       <c r="G17" s="46"/>
       <c r="H17" s="47"/>
     </row>
-    <row r="18" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="15.9" thickTop="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3725,8 +4058,8 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="113" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B21" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -3743,12 +4076,12 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="113"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B22" s="118"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="113"/>
+    <row r="23" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B23" s="118"/>
       <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
@@ -3763,12 +4096,12 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="113"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B24" s="118"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="113"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B25" s="118"/>
       <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
@@ -3783,12 +4116,12 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="113"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B26" s="118"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="113"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B27" s="118"/>
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +4136,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -3812,7 +4145,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3821,8 +4154,8 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="113" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B30" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -3839,8 +4172,8 @@
       </c>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="113"/>
+    <row r="31" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B31" s="118"/>
       <c r="D31" s="20">
         <v>1</v>
       </c>
@@ -3855,15 +4188,15 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="113"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B32" s="118"/>
       <c r="D32" s="20"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -3872,8 +4205,8 @@
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -3882,8 +4215,8 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="113" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B37" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3900,12 +4233,12 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="113"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B38" s="118"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="113"/>
+    <row r="39" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B39" s="118"/>
       <c r="C39" s="10" t="s">
         <v>9</v>
       </c>
@@ -3920,12 +4253,12 @@
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="113"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B40" s="118"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="113"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B41" s="118"/>
       <c r="C41" s="10" t="s">
         <v>10</v>
       </c>
@@ -3940,12 +4273,12 @@
       </c>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="113"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B42" s="118"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="113"/>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B43" s="118"/>
       <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
@@ -3958,7 +4291,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -3967,14 +4300,14 @@
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="113" t="s">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B46" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -3991,8 +4324,8 @@
       </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="113"/>
+    <row r="47" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B47" s="118"/>
       <c r="D47" s="20">
         <v>1</v>
       </c>
@@ -4007,15 +4340,15 @@
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="113"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B48" s="118"/>
       <c r="D48" s="20"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="3"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -4024,8 +4357,8 @@
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="51" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -4034,8 +4367,8 @@
       <c r="G52" s="8"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="113" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B53" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -4052,12 +4385,12 @@
       </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="113"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B54" s="118"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="113"/>
+    <row r="55" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B55" s="118"/>
       <c r="C55" s="10" t="s">
         <v>9</v>
       </c>
@@ -4072,12 +4405,12 @@
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="113"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B56" s="118"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="113"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B57" s="118"/>
       <c r="C57" s="10" t="s">
         <v>10</v>
       </c>
@@ -4092,12 +4425,12 @@
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="113"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B58" s="118"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="113"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B59" s="118"/>
       <c r="C59" s="10" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +4443,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -4119,14 +4452,14 @@
       <c r="G60" s="15"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="113" t="s">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B62" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -4143,8 +4476,8 @@
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="113"/>
+    <row r="63" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B63" s="118"/>
       <c r="D63" s="20">
         <v>1</v>
       </c>
@@ -4159,15 +4492,15 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="113"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B64" s="118"/>
       <c r="D64" s="20"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="3"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B65" s="14"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -4176,8 +4509,8 @@
       <c r="G65" s="15"/>
       <c r="H65" s="16"/>
     </row>
-    <row r="67" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -4186,8 +4519,8 @@
       <c r="G68" s="8"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="113" t="s">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B69" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -4204,12 +4537,12 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="113"/>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B70" s="118"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="113"/>
+    <row r="71" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B71" s="118"/>
       <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
@@ -4224,12 +4557,12 @@
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="113"/>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B72" s="118"/>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="113"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B73" s="118"/>
       <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
@@ -4244,12 +4577,12 @@
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="113"/>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B74" s="118"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="113"/>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B75" s="118"/>
       <c r="C75" s="10" t="s">
         <v>11</v>
       </c>
@@ -4262,7 +4595,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -4271,14 +4604,14 @@
       <c r="G76" s="15"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="113" t="s">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B78" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="17" t="s">
@@ -4295,8 +4628,8 @@
       </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B79" s="113"/>
+    <row r="79" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B79" s="118"/>
       <c r="D79" s="20">
         <v>1</v>
       </c>
@@ -4311,15 +4644,15 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="113"/>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B80" s="118"/>
       <c r="D80" s="20"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="3"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -4328,8 +4661,8 @@
       <c r="G81" s="15"/>
       <c r="H81" s="16"/>
     </row>
-    <row r="83" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -4338,8 +4671,8 @@
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="113" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B85" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -4356,12 +4689,12 @@
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="113"/>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B86" s="118"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B87" s="113"/>
+    <row r="87" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B87" s="118"/>
       <c r="C87" s="10" t="s">
         <v>9</v>
       </c>
@@ -4376,12 +4709,12 @@
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="113"/>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B88" s="118"/>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="113"/>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B89" s="118"/>
       <c r="C89" s="10" t="s">
         <v>10</v>
       </c>
@@ -4396,12 +4729,12 @@
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="113"/>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B90" s="118"/>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="113"/>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B91" s="118"/>
       <c r="C91" s="10" t="s">
         <v>11</v>
       </c>
@@ -4414,7 +4747,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
@@ -4423,14 +4756,14 @@
       <c r="G92" s="15"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="113" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B94" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="17" t="s">
@@ -4447,8 +4780,8 @@
       </c>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="113"/>
+    <row r="95" spans="2:8" ht="78" x14ac:dyDescent="0.6">
+      <c r="B95" s="118"/>
       <c r="D95" s="20">
         <v>1</v>
       </c>
@@ -4463,15 +4796,15 @@
       </c>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="113"/>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B96" s="118"/>
       <c r="D96" s="20"/>
       <c r="E96" s="4"/>
       <c r="F96" s="1"/>
       <c r="G96" s="3"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -4480,8 +4813,8 @@
       <c r="G97" s="15"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="99" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4490,8 +4823,8 @@
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="113" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B101" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -4508,12 +4841,12 @@
       </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="113"/>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B102" s="118"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="113"/>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B103" s="118"/>
       <c r="C103" s="10" t="s">
         <v>9</v>
       </c>
@@ -4528,12 +4861,12 @@
       </c>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="113"/>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B104" s="118"/>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="113"/>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B105" s="118"/>
       <c r="C105" s="10" t="s">
         <v>10</v>
       </c>
@@ -4548,12 +4881,12 @@
       </c>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="113"/>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B106" s="118"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="113"/>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B107" s="118"/>
       <c r="C107" s="10" t="s">
         <v>11</v>
       </c>
@@ -4568,7 +4901,7 @@
       </c>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
@@ -4577,14 +4910,14 @@
       <c r="G108" s="15"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="113" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B110" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="17" t="s">
@@ -4601,8 +4934,8 @@
       </c>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="113"/>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B111" s="118"/>
       <c r="D111" s="20">
         <v>1</v>
       </c>
@@ -4617,8 +4950,8 @@
       </c>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="113"/>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B112" s="118"/>
       <c r="D112" s="20">
         <v>2</v>
       </c>
@@ -4633,31 +4966,31 @@
       </c>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="113"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B113" s="118"/>
       <c r="D113" s="20"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="3"/>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="113"/>
+    <row r="114" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B114" s="118"/>
       <c r="D114" s="21"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="22"/>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="113"/>
+    <row r="115" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B115" s="118"/>
       <c r="D115" s="21"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="22"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -4666,8 +4999,8 @@
       <c r="G116" s="15"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="118" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -4676,8 +5009,8 @@
       <c r="G119" s="8"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="113" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B120" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C120" s="10" t="s">
@@ -4694,12 +5027,12 @@
       </c>
       <c r="H120" s="11"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="113"/>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B121" s="118"/>
       <c r="H121" s="11"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="113"/>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B122" s="118"/>
       <c r="C122" s="10" t="s">
         <v>9</v>
       </c>
@@ -4714,12 +5047,12 @@
       </c>
       <c r="H122" s="11"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="113"/>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B123" s="118"/>
       <c r="H123" s="11"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="113"/>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B124" s="118"/>
       <c r="C124" s="10" t="s">
         <v>10</v>
       </c>
@@ -4734,12 +5067,12 @@
       </c>
       <c r="H124" s="11"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="113"/>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B125" s="118"/>
       <c r="H125" s="11"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="113"/>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B126" s="118"/>
       <c r="C126" s="10" t="s">
         <v>11</v>
       </c>
@@ -4754,7 +5087,7 @@
       </c>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
@@ -4763,14 +5096,14 @@
       <c r="G127" s="15"/>
       <c r="H127" s="16"/>
     </row>
-    <row r="128" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="113" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B129" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="17" t="s">
@@ -4787,8 +5120,8 @@
       </c>
       <c r="H129" s="11"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="113"/>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B130" s="118"/>
       <c r="D130" s="20">
         <v>1</v>
       </c>
@@ -4803,8 +5136,8 @@
       </c>
       <c r="H130" s="11"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="113"/>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B131" s="118"/>
       <c r="D131" s="20">
         <v>2</v>
       </c>
@@ -4819,31 +5152,31 @@
       </c>
       <c r="H131" s="11"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="113"/>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B132" s="118"/>
       <c r="D132" s="20"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="3"/>
       <c r="H132" s="11"/>
     </row>
-    <row r="133" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="113"/>
+    <row r="133" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B133" s="118"/>
       <c r="D133" s="21"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="22"/>
       <c r="H133" s="11"/>
     </row>
-    <row r="134" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="113"/>
+    <row r="134" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B134" s="118"/>
       <c r="D134" s="21"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="22"/>
       <c r="H134" s="11"/>
     </row>
-    <row r="135" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
@@ -4852,8 +5185,8 @@
       <c r="G135" s="15"/>
       <c r="H135" s="16"/>
     </row>
-    <row r="137" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -4862,8 +5195,8 @@
       <c r="G138" s="8"/>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B139" s="113" t="s">
+    <row r="139" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B139" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -4880,12 +5213,12 @@
       </c>
       <c r="H139" s="11"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" s="113"/>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B140" s="118"/>
       <c r="H140" s="11"/>
     </row>
-    <row r="141" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B141" s="113"/>
+    <row r="141" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B141" s="118"/>
       <c r="C141" s="10" t="s">
         <v>9</v>
       </c>
@@ -4900,12 +5233,12 @@
       </c>
       <c r="H141" s="11"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="113"/>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B142" s="118"/>
       <c r="H142" s="11"/>
     </row>
-    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="113"/>
+    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B143" s="118"/>
       <c r="C143" s="10" t="s">
         <v>10</v>
       </c>
@@ -4920,12 +5253,12 @@
       </c>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="113"/>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B144" s="118"/>
       <c r="H144" s="11"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="113"/>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B145" s="118"/>
       <c r="C145" s="10" t="s">
         <v>11</v>
       </c>
@@ -4940,7 +5273,7 @@
       </c>
       <c r="H145" s="11"/>
     </row>
-    <row r="146" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B146" s="14"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
@@ -4949,14 +5282,14 @@
       <c r="G146" s="15"/>
       <c r="H146" s="16"/>
     </row>
-    <row r="147" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="113" t="s">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B148" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="17" t="s">
@@ -4973,8 +5306,8 @@
       </c>
       <c r="H148" s="11"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="113"/>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B149" s="118"/>
       <c r="D149" s="20">
         <v>1</v>
       </c>
@@ -4989,8 +5322,8 @@
       </c>
       <c r="H149" s="11"/>
     </row>
-    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="113"/>
+    <row r="150" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B150" s="118"/>
       <c r="D150" s="20">
         <v>2</v>
       </c>
@@ -5005,31 +5338,31 @@
       </c>
       <c r="H150" s="11"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="113"/>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B151" s="118"/>
       <c r="D151" s="20"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="3"/>
       <c r="H151" s="11"/>
     </row>
-    <row r="152" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="113"/>
+    <row r="152" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B152" s="118"/>
       <c r="D152" s="21"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="22"/>
       <c r="H152" s="11"/>
     </row>
-    <row r="153" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="113"/>
+    <row r="153" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B153" s="118"/>
       <c r="D153" s="21"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="22"/>
       <c r="H153" s="11"/>
     </row>
-    <row r="154" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B154" s="14"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
@@ -5038,8 +5371,8 @@
       <c r="G154" s="15"/>
       <c r="H154" s="16"/>
     </row>
-    <row r="156" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -5048,8 +5381,8 @@
       <c r="G157" s="8"/>
       <c r="H157" s="9"/>
     </row>
-    <row r="158" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B158" s="113" t="s">
+    <row r="158" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B158" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C158" s="10" t="s">
@@ -5066,12 +5399,12 @@
       </c>
       <c r="H158" s="11"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" s="113"/>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B159" s="118"/>
       <c r="H159" s="11"/>
     </row>
-    <row r="160" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B160" s="113"/>
+    <row r="160" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B160" s="118"/>
       <c r="C160" s="10" t="s">
         <v>9</v>
       </c>
@@ -5086,12 +5419,12 @@
       </c>
       <c r="H160" s="11"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" s="113"/>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B161" s="118"/>
       <c r="H161" s="11"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="113"/>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B162" s="118"/>
       <c r="C162" s="10" t="s">
         <v>10</v>
       </c>
@@ -5106,12 +5439,12 @@
       </c>
       <c r="H162" s="11"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" s="113"/>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B163" s="118"/>
       <c r="H163" s="11"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="113"/>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B164" s="118"/>
       <c r="C164" s="10" t="s">
         <v>11</v>
       </c>
@@ -5126,7 +5459,7 @@
       </c>
       <c r="H164" s="11"/>
     </row>
-    <row r="165" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B165" s="14"/>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
@@ -5135,14 +5468,14 @@
       <c r="G165" s="15"/>
       <c r="H165" s="16"/>
     </row>
-    <row r="166" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="H166" s="9"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="113" t="s">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B167" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D167" s="17" t="s">
@@ -5159,8 +5492,8 @@
       </c>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="113"/>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B168" s="118"/>
       <c r="D168" s="20">
         <v>1</v>
       </c>
@@ -5175,8 +5508,8 @@
       </c>
       <c r="H168" s="11"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="113"/>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B169" s="118"/>
       <c r="D169" s="20">
         <v>2</v>
       </c>
@@ -5191,31 +5524,31 @@
       </c>
       <c r="H169" s="11"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="113"/>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B170" s="118"/>
       <c r="D170" s="20"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="3"/>
       <c r="H170" s="11"/>
     </row>
-    <row r="171" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="113"/>
+    <row r="171" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B171" s="118"/>
       <c r="D171" s="21"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="22"/>
       <c r="H171" s="11"/>
     </row>
-    <row r="172" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="113"/>
+    <row r="172" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B172" s="118"/>
       <c r="D172" s="21"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="22"/>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B173" s="14"/>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
@@ -5224,8 +5557,8 @@
       <c r="G173" s="15"/>
       <c r="H173" s="16"/>
     </row>
-    <row r="175" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -5234,8 +5567,8 @@
       <c r="G176" s="8"/>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" s="113" t="s">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B177" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -5252,12 +5585,12 @@
       </c>
       <c r="H177" s="11"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="113"/>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B178" s="118"/>
       <c r="H178" s="11"/>
     </row>
-    <row r="179" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="113"/>
+    <row r="179" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B179" s="118"/>
       <c r="C179" s="10" t="s">
         <v>9</v>
       </c>
@@ -5272,12 +5605,12 @@
       </c>
       <c r="H179" s="11"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" s="113"/>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B180" s="118"/>
       <c r="H180" s="11"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="113"/>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B181" s="118"/>
       <c r="C181" s="10" t="s">
         <v>10</v>
       </c>
@@ -5292,12 +5625,12 @@
       </c>
       <c r="H181" s="11"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" s="113"/>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B182" s="118"/>
       <c r="H182" s="11"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" s="113"/>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B183" s="118"/>
       <c r="C183" s="10" t="s">
         <v>11</v>
       </c>
@@ -5312,7 +5645,7 @@
       </c>
       <c r="H183" s="11"/>
     </row>
-    <row r="184" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B184" s="14"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
@@ -5321,14 +5654,14 @@
       <c r="G184" s="15"/>
       <c r="H184" s="16"/>
     </row>
-    <row r="185" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="H185" s="9"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="113" t="s">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B186" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D186" s="17" t="s">
@@ -5345,8 +5678,8 @@
       </c>
       <c r="H186" s="11"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" s="113"/>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B187" s="118"/>
       <c r="D187" s="20">
         <v>1</v>
       </c>
@@ -5361,8 +5694,8 @@
       </c>
       <c r="H187" s="11"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" s="113"/>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B188" s="118"/>
       <c r="D188" s="20">
         <v>2</v>
       </c>
@@ -5377,31 +5710,31 @@
       </c>
       <c r="H188" s="11"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" s="113"/>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B189" s="118"/>
       <c r="D189" s="20"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="3"/>
       <c r="H189" s="11"/>
     </row>
-    <row r="190" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="113"/>
+    <row r="190" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B190" s="118"/>
       <c r="D190" s="21"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="22"/>
       <c r="H190" s="11"/>
     </row>
-    <row r="191" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="113"/>
+    <row r="191" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B191" s="118"/>
       <c r="D191" s="21"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="22"/>
       <c r="H191" s="11"/>
     </row>
-    <row r="192" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B192" s="14"/>
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
@@ -5410,8 +5743,8 @@
       <c r="G192" s="15"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="194" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B195" s="7"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -5420,8 +5753,8 @@
       <c r="G195" s="8"/>
       <c r="H195" s="9"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="113" t="s">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B196" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C196" s="10" t="s">
@@ -5438,12 +5771,12 @@
       </c>
       <c r="H196" s="11"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="113"/>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B197" s="118"/>
       <c r="H197" s="11"/>
     </row>
-    <row r="198" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B198" s="113"/>
+    <row r="198" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B198" s="118"/>
       <c r="C198" s="10" t="s">
         <v>9</v>
       </c>
@@ -5458,12 +5791,12 @@
       </c>
       <c r="H198" s="11"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="113"/>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B199" s="118"/>
       <c r="H199" s="11"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="113"/>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B200" s="118"/>
       <c r="C200" s="10" t="s">
         <v>10</v>
       </c>
@@ -5478,12 +5811,12 @@
       </c>
       <c r="H200" s="11"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="113"/>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B201" s="118"/>
       <c r="H201" s="11"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B202" s="113"/>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B202" s="118"/>
       <c r="C202" s="10" t="s">
         <v>11</v>
       </c>
@@ -5498,7 +5831,7 @@
       </c>
       <c r="H202" s="11"/>
     </row>
-    <row r="203" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B203" s="14"/>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
@@ -5507,14 +5840,14 @@
       <c r="G203" s="15"/>
       <c r="H203" s="16"/>
     </row>
-    <row r="204" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B204" s="7"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="H204" s="9"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="113" t="s">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B205" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="17" t="s">
@@ -5531,8 +5864,8 @@
       </c>
       <c r="H205" s="11"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="113"/>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B206" s="118"/>
       <c r="D206" s="20">
         <v>1</v>
       </c>
@@ -5547,8 +5880,8 @@
       </c>
       <c r="H206" s="11"/>
     </row>
-    <row r="207" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B207" s="113"/>
+    <row r="207" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B207" s="118"/>
       <c r="D207" s="20">
         <v>2</v>
       </c>
@@ -5563,31 +5896,31 @@
       </c>
       <c r="H207" s="11"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="113"/>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B208" s="118"/>
       <c r="D208" s="20"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="3"/>
       <c r="H208" s="11"/>
     </row>
-    <row r="209" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="113"/>
+    <row r="209" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B209" s="118"/>
       <c r="D209" s="21"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="22"/>
       <c r="H209" s="11"/>
     </row>
-    <row r="210" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="113"/>
+    <row r="210" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B210" s="118"/>
       <c r="D210" s="21"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="22"/>
       <c r="H210" s="11"/>
     </row>
-    <row r="211" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B211" s="14"/>
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
@@ -5596,8 +5929,8 @@
       <c r="G211" s="15"/>
       <c r="H211" s="16"/>
     </row>
-    <row r="213" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B214" s="7"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
@@ -5606,8 +5939,8 @@
       <c r="G214" s="8"/>
       <c r="H214" s="9"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B215" s="113" t="s">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B215" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C215" s="10" t="s">
@@ -5624,12 +5957,12 @@
       </c>
       <c r="H215" s="11"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B216" s="113"/>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B216" s="118"/>
       <c r="H216" s="11"/>
     </row>
-    <row r="217" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B217" s="113"/>
+    <row r="217" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B217" s="118"/>
       <c r="C217" s="10" t="s">
         <v>9</v>
       </c>
@@ -5644,12 +5977,12 @@
       </c>
       <c r="H217" s="11"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B218" s="113"/>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B218" s="118"/>
       <c r="H218" s="11"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B219" s="113"/>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B219" s="118"/>
       <c r="C219" s="10" t="s">
         <v>10</v>
       </c>
@@ -5664,12 +5997,12 @@
       </c>
       <c r="H219" s="11"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B220" s="113"/>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B220" s="118"/>
       <c r="H220" s="11"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B221" s="113"/>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B221" s="118"/>
       <c r="C221" s="10" t="s">
         <v>11</v>
       </c>
@@ -5684,7 +6017,7 @@
       </c>
       <c r="H221" s="11"/>
     </row>
-    <row r="222" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B222" s="14"/>
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
@@ -5693,14 +6026,14 @@
       <c r="G222" s="15"/>
       <c r="H222" s="16"/>
     </row>
-    <row r="223" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B223" s="7"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
       <c r="H223" s="9"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B224" s="113" t="s">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B224" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="17" t="s">
@@ -5717,8 +6050,8 @@
       </c>
       <c r="H224" s="11"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B225" s="113"/>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B225" s="118"/>
       <c r="D225" s="20">
         <v>1</v>
       </c>
@@ -5733,8 +6066,8 @@
       </c>
       <c r="H225" s="11"/>
     </row>
-    <row r="226" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B226" s="113"/>
+    <row r="226" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B226" s="118"/>
       <c r="D226" s="20">
         <v>2</v>
       </c>
@@ -5749,31 +6082,31 @@
       </c>
       <c r="H226" s="11"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B227" s="113"/>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B227" s="118"/>
       <c r="D227" s="20"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="3"/>
       <c r="H227" s="11"/>
     </row>
-    <row r="228" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="113"/>
+    <row r="228" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B228" s="118"/>
       <c r="D228" s="21"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="22"/>
       <c r="H228" s="11"/>
     </row>
-    <row r="229" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="113"/>
+    <row r="229" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B229" s="118"/>
       <c r="D229" s="21"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="22"/>
       <c r="H229" s="11"/>
     </row>
-    <row r="230" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B230" s="14"/>
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
@@ -5782,8 +6115,8 @@
       <c r="G230" s="15"/>
       <c r="H230" s="16"/>
     </row>
-    <row r="232" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B233" s="7"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
@@ -5792,8 +6125,8 @@
       <c r="G233" s="8"/>
       <c r="H233" s="9"/>
     </row>
-    <row r="234" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B234" s="113" t="s">
+    <row r="234" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B234" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C234" s="10" t="s">
@@ -5810,12 +6143,12 @@
       </c>
       <c r="H234" s="11"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="113"/>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B235" s="118"/>
       <c r="H235" s="11"/>
     </row>
-    <row r="236" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B236" s="113"/>
+    <row r="236" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B236" s="118"/>
       <c r="C236" s="10" t="s">
         <v>9</v>
       </c>
@@ -5830,12 +6163,12 @@
       </c>
       <c r="H236" s="11"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B237" s="113"/>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B237" s="118"/>
       <c r="H237" s="11"/>
     </row>
-    <row r="238" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B238" s="113"/>
+    <row r="238" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B238" s="118"/>
       <c r="C238" s="10" t="s">
         <v>10</v>
       </c>
@@ -5850,12 +6183,12 @@
       </c>
       <c r="H238" s="11"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="113"/>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B239" s="118"/>
       <c r="H239" s="11"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="113"/>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B240" s="118"/>
       <c r="C240" s="10" t="s">
         <v>11</v>
       </c>
@@ -5870,7 +6203,7 @@
       </c>
       <c r="H240" s="11"/>
     </row>
-    <row r="241" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B241" s="14"/>
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
@@ -5879,12 +6212,12 @@
       <c r="G241" s="15"/>
       <c r="H241" s="16"/>
     </row>
-    <row r="242" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B242" s="13"/>
       <c r="H242" s="11"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B243" s="113" t="s">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B243" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D243" s="17" t="s">
@@ -5901,8 +6234,8 @@
       </c>
       <c r="H243" s="11"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B244" s="113"/>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B244" s="118"/>
       <c r="D244" s="20">
         <v>1</v>
       </c>
@@ -5917,8 +6250,8 @@
       </c>
       <c r="H244" s="11"/>
     </row>
-    <row r="245" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B245" s="113"/>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B245" s="118"/>
       <c r="D245" s="20">
         <v>2</v>
       </c>
@@ -5933,8 +6266,8 @@
       </c>
       <c r="H245" s="11"/>
     </row>
-    <row r="246" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B246" s="113"/>
+    <row r="246" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B246" s="118"/>
       <c r="D246" s="20">
         <v>3</v>
       </c>
@@ -5949,8 +6282,8 @@
       </c>
       <c r="H246" s="11"/>
     </row>
-    <row r="247" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B247" s="113"/>
+    <row r="247" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B247" s="118"/>
       <c r="D247" s="20">
         <v>4</v>
       </c>
@@ -5965,7 +6298,7 @@
       </c>
       <c r="H247" s="11"/>
     </row>
-    <row r="248" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B248" s="14"/>
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
@@ -5974,8 +6307,8 @@
       <c r="G248" s="15"/>
       <c r="H248" s="16"/>
     </row>
-    <row r="250" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B251" s="7"/>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
@@ -5984,8 +6317,8 @@
       <c r="G251" s="8"/>
       <c r="H251" s="9"/>
     </row>
-    <row r="252" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B252" s="113" t="s">
+    <row r="252" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B252" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C252" s="10" t="s">
@@ -6002,12 +6335,12 @@
       </c>
       <c r="H252" s="11"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B253" s="113"/>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B253" s="118"/>
       <c r="H253" s="11"/>
     </row>
-    <row r="254" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B254" s="113"/>
+    <row r="254" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B254" s="118"/>
       <c r="C254" s="10" t="s">
         <v>9</v>
       </c>
@@ -6022,12 +6355,12 @@
       </c>
       <c r="H254" s="11"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B255" s="113"/>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B255" s="118"/>
       <c r="H255" s="11"/>
     </row>
-    <row r="256" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B256" s="113"/>
+    <row r="256" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B256" s="118"/>
       <c r="C256" s="10" t="s">
         <v>10</v>
       </c>
@@ -6042,12 +6375,12 @@
       </c>
       <c r="H256" s="11"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="113"/>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B257" s="118"/>
       <c r="H257" s="11"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B258" s="113"/>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B258" s="118"/>
       <c r="C258" s="10" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6395,7 @@
       </c>
       <c r="H258" s="11"/>
     </row>
-    <row r="259" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B259" s="14"/>
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
@@ -6071,7 +6404,7 @@
       <c r="G259" s="15"/>
       <c r="H259" s="16"/>
     </row>
-    <row r="260" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B260" s="7"/>
       <c r="C260" s="8"/>
       <c r="D260" s="8"/>
@@ -6080,8 +6413,8 @@
       <c r="G260" s="8"/>
       <c r="H260" s="9"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B261" s="113" t="s">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B261" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D261" s="17" t="s">
@@ -6098,8 +6431,8 @@
       </c>
       <c r="H261" s="11"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B262" s="113"/>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B262" s="118"/>
       <c r="D262" s="20">
         <v>1</v>
       </c>
@@ -6114,8 +6447,8 @@
       </c>
       <c r="H262" s="11"/>
     </row>
-    <row r="263" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B263" s="113"/>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B263" s="118"/>
       <c r="D263" s="20">
         <v>2</v>
       </c>
@@ -6130,8 +6463,8 @@
       </c>
       <c r="H263" s="11"/>
     </row>
-    <row r="264" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B264" s="113"/>
+    <row r="264" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B264" s="118"/>
       <c r="D264" s="20">
         <v>3</v>
       </c>
@@ -6146,8 +6479,8 @@
       </c>
       <c r="H264" s="11"/>
     </row>
-    <row r="265" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B265" s="113"/>
+    <row r="265" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B265" s="118"/>
       <c r="D265" s="20">
         <v>4</v>
       </c>
@@ -6162,7 +6495,7 @@
       </c>
       <c r="H265" s="11"/>
     </row>
-    <row r="266" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B266" s="14"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
@@ -6171,8 +6504,8 @@
       <c r="G266" s="15"/>
       <c r="H266" s="16"/>
     </row>
-    <row r="268" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B269" s="7"/>
       <c r="C269" s="8"/>
       <c r="D269" s="8"/>
@@ -6181,8 +6514,8 @@
       <c r="G269" s="8"/>
       <c r="H269" s="9"/>
     </row>
-    <row r="270" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B270" s="113" t="s">
+    <row r="270" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B270" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C270" s="10" t="s">
@@ -6199,12 +6532,12 @@
       </c>
       <c r="H270" s="11"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B271" s="113"/>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B271" s="118"/>
       <c r="H271" s="11"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B272" s="113"/>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B272" s="118"/>
       <c r="C272" s="10" t="s">
         <v>9</v>
       </c>
@@ -6219,12 +6552,12 @@
       </c>
       <c r="H272" s="11"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B273" s="113"/>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B273" s="118"/>
       <c r="H273" s="11"/>
     </row>
-    <row r="274" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B274" s="113"/>
+    <row r="274" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B274" s="118"/>
       <c r="C274" s="10" t="s">
         <v>10</v>
       </c>
@@ -6239,12 +6572,12 @@
       </c>
       <c r="H274" s="11"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B275" s="113"/>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B275" s="118"/>
       <c r="H275" s="11"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B276" s="113"/>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B276" s="118"/>
       <c r="C276" s="10" t="s">
         <v>11</v>
       </c>
@@ -6257,7 +6590,7 @@
       </c>
       <c r="H276" s="11"/>
     </row>
-    <row r="277" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B277" s="14"/>
       <c r="C277" s="15"/>
       <c r="D277" s="15"/>
@@ -6266,14 +6599,14 @@
       <c r="G277" s="15"/>
       <c r="H277" s="16"/>
     </row>
-    <row r="278" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B278" s="7"/>
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="H278" s="9"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B279" s="113" t="s">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B279" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D279" s="17" t="s">
@@ -6290,8 +6623,8 @@
       </c>
       <c r="H279" s="11"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B280" s="113"/>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B280" s="118"/>
       <c r="D280" s="20">
         <v>1</v>
       </c>
@@ -6306,8 +6639,8 @@
       </c>
       <c r="H280" s="11"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B281" s="113"/>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B281" s="118"/>
       <c r="D281" s="20">
         <v>2</v>
       </c>
@@ -6322,8 +6655,8 @@
       </c>
       <c r="H281" s="11"/>
     </row>
-    <row r="282" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B282" s="113"/>
+    <row r="282" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B282" s="118"/>
       <c r="D282" s="20">
         <v>3</v>
       </c>
@@ -6338,15 +6671,15 @@
       </c>
       <c r="H282" s="11"/>
     </row>
-    <row r="283" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="113"/>
+    <row r="283" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B283" s="118"/>
       <c r="D283" s="21"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="22"/>
       <c r="H283" s="11"/>
     </row>
-    <row r="284" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B284" s="14"/>
       <c r="C284" s="15"/>
       <c r="D284" s="15"/>
@@ -6355,8 +6688,8 @@
       <c r="G284" s="15"/>
       <c r="H284" s="16"/>
     </row>
-    <row r="286" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -6365,8 +6698,8 @@
       <c r="G287" s="8"/>
       <c r="H287" s="9"/>
     </row>
-    <row r="288" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B288" s="113" t="s">
+    <row r="288" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B288" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C288" s="10" t="s">
@@ -6383,12 +6716,12 @@
       </c>
       <c r="H288" s="11"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B289" s="113"/>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B289" s="118"/>
       <c r="H289" s="11"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B290" s="113"/>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B290" s="118"/>
       <c r="C290" s="10" t="s">
         <v>9</v>
       </c>
@@ -6403,12 +6736,12 @@
       </c>
       <c r="H290" s="11"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B291" s="113"/>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B291" s="118"/>
       <c r="H291" s="11"/>
     </row>
-    <row r="292" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B292" s="113"/>
+    <row r="292" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B292" s="118"/>
       <c r="C292" s="10" t="s">
         <v>10</v>
       </c>
@@ -6423,12 +6756,12 @@
       </c>
       <c r="H292" s="11"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B293" s="113"/>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B293" s="118"/>
       <c r="H293" s="11"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B294" s="113"/>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B294" s="118"/>
       <c r="C294" s="10" t="s">
         <v>11</v>
       </c>
@@ -6443,7 +6776,7 @@
       </c>
       <c r="H294" s="11"/>
     </row>
-    <row r="295" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B295" s="14"/>
       <c r="C295" s="15"/>
       <c r="D295" s="15"/>
@@ -6452,14 +6785,14 @@
       <c r="G295" s="15"/>
       <c r="H295" s="16"/>
     </row>
-    <row r="296" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
       <c r="D296" s="8"/>
       <c r="H296" s="9"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B297" s="113" t="s">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B297" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="17" t="s">
@@ -6476,8 +6809,8 @@
       </c>
       <c r="H297" s="11"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B298" s="113"/>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B298" s="118"/>
       <c r="D298" s="20">
         <v>1</v>
       </c>
@@ -6492,8 +6825,8 @@
       </c>
       <c r="H298" s="11"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="113"/>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B299" s="118"/>
       <c r="D299" s="20">
         <v>2</v>
       </c>
@@ -6508,8 +6841,8 @@
       </c>
       <c r="H299" s="11"/>
     </row>
-    <row r="300" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B300" s="113"/>
+    <row r="300" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B300" s="118"/>
       <c r="D300" s="20">
         <v>3</v>
       </c>
@@ -6524,23 +6857,23 @@
       </c>
       <c r="H300" s="11"/>
     </row>
-    <row r="301" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="113"/>
+    <row r="301" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B301" s="118"/>
       <c r="D301" s="21"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="22"/>
       <c r="H301" s="11"/>
     </row>
-    <row r="302" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="113"/>
+    <row r="302" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B302" s="118"/>
       <c r="D302" s="21"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="22"/>
       <c r="H302" s="11"/>
     </row>
-    <row r="303" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B303" s="14"/>
       <c r="C303" s="15"/>
       <c r="D303" s="15"/>
@@ -6549,8 +6882,8 @@
       <c r="G303" s="15"/>
       <c r="H303" s="16"/>
     </row>
-    <row r="305" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
       <c r="D306" s="8"/>
@@ -6559,8 +6892,8 @@
       <c r="G306" s="8"/>
       <c r="H306" s="9"/>
     </row>
-    <row r="307" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B307" s="113" t="s">
+    <row r="307" spans="2:8" ht="78" x14ac:dyDescent="0.6">
+      <c r="B307" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C307" s="10" t="s">
@@ -6577,12 +6910,12 @@
       </c>
       <c r="H307" s="11"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B308" s="113"/>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B308" s="118"/>
       <c r="H308" s="11"/>
     </row>
-    <row r="309" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B309" s="113"/>
+    <row r="309" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B309" s="118"/>
       <c r="C309" s="10" t="s">
         <v>9</v>
       </c>
@@ -6597,12 +6930,12 @@
       </c>
       <c r="H309" s="11"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B310" s="113"/>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B310" s="118"/>
       <c r="H310" s="11"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B311" s="113"/>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B311" s="118"/>
       <c r="C311" s="10" t="s">
         <v>10</v>
       </c>
@@ -6617,12 +6950,12 @@
       </c>
       <c r="H311" s="11"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B312" s="113"/>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B312" s="118"/>
       <c r="H312" s="11"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B313" s="113"/>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B313" s="118"/>
       <c r="C313" s="10" t="s">
         <v>11</v>
       </c>
@@ -6635,7 +6968,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="11"/>
     </row>
-    <row r="314" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B314" s="14"/>
       <c r="C314" s="15"/>
       <c r="D314" s="15"/>
@@ -6644,14 +6977,14 @@
       <c r="G314" s="15"/>
       <c r="H314" s="16"/>
     </row>
-    <row r="315" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B315" s="7"/>
       <c r="C315" s="8"/>
       <c r="D315" s="8"/>
       <c r="H315" s="9"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B316" s="113" t="s">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B316" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="17" t="s">
@@ -6668,8 +7001,8 @@
       </c>
       <c r="H316" s="11"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B317" s="113"/>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B317" s="118"/>
       <c r="D317" s="20">
         <v>1</v>
       </c>
@@ -6684,8 +7017,8 @@
       </c>
       <c r="H317" s="11"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B318" s="113"/>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B318" s="118"/>
       <c r="D318" s="20">
         <v>2</v>
       </c>
@@ -6700,8 +7033,8 @@
       </c>
       <c r="H318" s="11"/>
     </row>
-    <row r="319" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B319" s="113"/>
+    <row r="319" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B319" s="118"/>
       <c r="D319" s="20">
         <v>3</v>
       </c>
@@ -6716,8 +7049,8 @@
       </c>
       <c r="H319" s="11"/>
     </row>
-    <row r="320" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="113"/>
+    <row r="320" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B320" s="118"/>
       <c r="D320" s="21">
         <v>4</v>
       </c>
@@ -6726,7 +7059,7 @@
       <c r="G320" s="22"/>
       <c r="H320" s="11"/>
     </row>
-    <row r="321" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B321" s="63"/>
       <c r="C321" s="15"/>
       <c r="D321" s="15"/>
@@ -6735,11 +7068,11 @@
       <c r="G321" s="15"/>
       <c r="H321" s="16"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B322" s="62"/>
     </row>
-    <row r="323" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="324" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B324" s="7"/>
       <c r="C324" s="8"/>
       <c r="D324" s="8"/>
@@ -6748,8 +7081,8 @@
       <c r="G324" s="8"/>
       <c r="H324" s="9"/>
     </row>
-    <row r="325" spans="2:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B325" s="113" t="s">
+    <row r="325" spans="2:8" ht="78" x14ac:dyDescent="0.6">
+      <c r="B325" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C325" s="10" t="s">
@@ -6766,12 +7099,12 @@
       </c>
       <c r="H325" s="11"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B326" s="113"/>
+    <row r="326" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B326" s="118"/>
       <c r="H326" s="11"/>
     </row>
-    <row r="327" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B327" s="113"/>
+    <row r="327" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B327" s="118"/>
       <c r="C327" s="10" t="s">
         <v>9</v>
       </c>
@@ -6786,12 +7119,12 @@
       </c>
       <c r="H327" s="11"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B328" s="113"/>
+    <row r="328" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B328" s="118"/>
       <c r="H328" s="11"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B329" s="113"/>
+    <row r="329" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B329" s="118"/>
       <c r="C329" s="10" t="s">
         <v>10</v>
       </c>
@@ -6806,12 +7139,12 @@
       </c>
       <c r="H329" s="11"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B330" s="113"/>
+    <row r="330" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B330" s="118"/>
       <c r="H330" s="11"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B331" s="113"/>
+    <row r="331" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B331" s="118"/>
       <c r="C331" s="10" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +7157,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="11"/>
     </row>
-    <row r="332" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B332" s="14"/>
       <c r="C332" s="15"/>
       <c r="D332" s="15"/>
@@ -6833,14 +7166,14 @@
       <c r="G332" s="15"/>
       <c r="H332" s="16"/>
     </row>
-    <row r="333" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B333" s="7"/>
       <c r="C333" s="8"/>
       <c r="D333" s="8"/>
       <c r="H333" s="9"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B334" s="113" t="s">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B334" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D334" s="17" t="s">
@@ -6857,8 +7190,8 @@
       </c>
       <c r="H334" s="11"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B335" s="113"/>
+    <row r="335" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B335" s="118"/>
       <c r="D335" s="20">
         <v>1</v>
       </c>
@@ -6873,8 +7206,8 @@
       </c>
       <c r="H335" s="11"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B336" s="113"/>
+    <row r="336" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B336" s="118"/>
       <c r="D336" s="20">
         <v>2</v>
       </c>
@@ -6889,8 +7222,8 @@
       </c>
       <c r="H336" s="11"/>
     </row>
-    <row r="337" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B337" s="113"/>
+    <row r="337" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B337" s="118"/>
       <c r="D337" s="20">
         <v>3</v>
       </c>
@@ -6905,8 +7238,8 @@
       </c>
       <c r="H337" s="11"/>
     </row>
-    <row r="338" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B338" s="113"/>
+    <row r="338" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B338" s="118"/>
       <c r="D338" s="21">
         <v>4</v>
       </c>
@@ -6915,7 +7248,7 @@
       <c r="G338" s="22"/>
       <c r="H338" s="11"/>
     </row>
-    <row r="339" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B339" s="14"/>
       <c r="C339" s="15"/>
       <c r="D339" s="15"/>
@@ -6924,8 +7257,8 @@
       <c r="G339" s="15"/>
       <c r="H339" s="16"/>
     </row>
-    <row r="342" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="343" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B343" s="7"/>
       <c r="C343" s="8"/>
       <c r="D343" s="8"/>
@@ -6934,8 +7267,8 @@
       <c r="G343" s="8"/>
       <c r="H343" s="9"/>
     </row>
-    <row r="344" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B344" s="113" t="s">
+    <row r="344" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B344" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C344" s="10" t="s">
@@ -6952,12 +7285,12 @@
       </c>
       <c r="H344" s="11"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B345" s="113"/>
+    <row r="345" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B345" s="118"/>
       <c r="H345" s="11"/>
     </row>
-    <row r="346" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B346" s="113"/>
+    <row r="346" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B346" s="118"/>
       <c r="C346" s="10" t="s">
         <v>9</v>
       </c>
@@ -6972,12 +7305,12 @@
       </c>
       <c r="H346" s="11"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B347" s="113"/>
+    <row r="347" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B347" s="118"/>
       <c r="H347" s="11"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B348" s="113"/>
+    <row r="348" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B348" s="118"/>
       <c r="C348" s="10" t="s">
         <v>10</v>
       </c>
@@ -6992,12 +7325,12 @@
       </c>
       <c r="H348" s="11"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B349" s="113"/>
+    <row r="349" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B349" s="118"/>
       <c r="H349" s="11"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B350" s="113"/>
+    <row r="350" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B350" s="118"/>
       <c r="C350" s="10" t="s">
         <v>11</v>
       </c>
@@ -7012,7 +7345,7 @@
       </c>
       <c r="H350" s="11"/>
     </row>
-    <row r="351" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B351" s="14"/>
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
@@ -7021,12 +7354,12 @@
       <c r="G351" s="15"/>
       <c r="H351" s="16"/>
     </row>
-    <row r="352" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B352" s="13"/>
       <c r="H352" s="11"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B353" s="113" t="s">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B353" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D353" s="17" t="s">
@@ -7043,8 +7376,8 @@
       </c>
       <c r="H353" s="11"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B354" s="113"/>
+    <row r="354" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B354" s="118"/>
       <c r="D354" s="20">
         <v>1</v>
       </c>
@@ -7059,8 +7392,8 @@
       </c>
       <c r="H354" s="11"/>
     </row>
-    <row r="355" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B355" s="113"/>
+    <row r="355" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B355" s="118"/>
       <c r="D355" s="20">
         <v>2</v>
       </c>
@@ -7075,8 +7408,8 @@
       </c>
       <c r="H355" s="11"/>
     </row>
-    <row r="356" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="113"/>
+    <row r="356" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B356" s="118"/>
       <c r="D356" s="21">
         <v>3</v>
       </c>
@@ -7085,7 +7418,7 @@
       <c r="G356" s="22"/>
       <c r="H356" s="11"/>
     </row>
-    <row r="357" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B357" s="14"/>
       <c r="C357" s="15"/>
       <c r="D357" s="15"/>
@@ -7094,8 +7427,8 @@
       <c r="G357" s="15"/>
       <c r="H357" s="16"/>
     </row>
-    <row r="359" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="360" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B360" s="7"/>
       <c r="C360" s="8"/>
       <c r="D360" s="8"/>
@@ -7104,8 +7437,8 @@
       <c r="G360" s="8"/>
       <c r="H360" s="9"/>
     </row>
-    <row r="361" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B361" s="113" t="s">
+    <row r="361" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B361" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C361" s="10" t="s">
@@ -7122,12 +7455,12 @@
       </c>
       <c r="H361" s="11"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B362" s="113"/>
+    <row r="362" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B362" s="118"/>
       <c r="H362" s="11"/>
     </row>
-    <row r="363" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B363" s="113"/>
+    <row r="363" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B363" s="118"/>
       <c r="C363" s="10" t="s">
         <v>9</v>
       </c>
@@ -7142,12 +7475,12 @@
       </c>
       <c r="H363" s="11"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B364" s="113"/>
+    <row r="364" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B364" s="118"/>
       <c r="H364" s="11"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B365" s="113"/>
+    <row r="365" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B365" s="118"/>
       <c r="C365" s="10" t="s">
         <v>10</v>
       </c>
@@ -7162,12 +7495,12 @@
       </c>
       <c r="H365" s="11"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B366" s="113"/>
+    <row r="366" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B366" s="118"/>
       <c r="H366" s="11"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B367" s="113"/>
+    <row r="367" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B367" s="118"/>
       <c r="C367" s="10" t="s">
         <v>11</v>
       </c>
@@ -7182,7 +7515,7 @@
       </c>
       <c r="H367" s="11"/>
     </row>
-    <row r="368" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B368" s="14"/>
       <c r="C368" s="15"/>
       <c r="D368" s="15"/>
@@ -7191,12 +7524,12 @@
       <c r="G368" s="15"/>
       <c r="H368" s="16"/>
     </row>
-    <row r="369" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B369" s="13"/>
       <c r="H369" s="11"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B370" s="113" t="s">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B370" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D370" s="17" t="s">
@@ -7213,8 +7546,8 @@
       </c>
       <c r="H370" s="11"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B371" s="113"/>
+    <row r="371" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B371" s="118"/>
       <c r="D371" s="20">
         <v>1</v>
       </c>
@@ -7229,8 +7562,8 @@
       </c>
       <c r="H371" s="11"/>
     </row>
-    <row r="372" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B372" s="113"/>
+    <row r="372" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B372" s="118"/>
       <c r="D372" s="20">
         <v>2</v>
       </c>
@@ -7245,8 +7578,8 @@
       </c>
       <c r="H372" s="11"/>
     </row>
-    <row r="373" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="113"/>
+    <row r="373" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B373" s="118"/>
       <c r="D373" s="21">
         <v>3</v>
       </c>
@@ -7255,7 +7588,7 @@
       <c r="G373" s="22"/>
       <c r="H373" s="11"/>
     </row>
-    <row r="374" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B374" s="14"/>
       <c r="C374" s="15"/>
       <c r="D374" s="15"/>
@@ -7264,8 +7597,8 @@
       <c r="G374" s="15"/>
       <c r="H374" s="16"/>
     </row>
-    <row r="376" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="377" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B377" s="7"/>
       <c r="C377" s="8"/>
       <c r="D377" s="8"/>
@@ -7274,8 +7607,8 @@
       <c r="G377" s="8"/>
       <c r="H377" s="9"/>
     </row>
-    <row r="378" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B378" s="113" t="s">
+    <row r="378" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B378" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C378" s="10" t="s">
@@ -7292,12 +7625,12 @@
       </c>
       <c r="H378" s="11"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B379" s="113"/>
+    <row r="379" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B379" s="118"/>
       <c r="H379" s="11"/>
     </row>
-    <row r="380" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B380" s="113"/>
+    <row r="380" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B380" s="118"/>
       <c r="C380" s="10" t="s">
         <v>9</v>
       </c>
@@ -7312,12 +7645,12 @@
       </c>
       <c r="H380" s="11"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B381" s="113"/>
+    <row r="381" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B381" s="118"/>
       <c r="H381" s="11"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B382" s="113"/>
+    <row r="382" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B382" s="118"/>
       <c r="C382" s="10" t="s">
         <v>10</v>
       </c>
@@ -7332,12 +7665,12 @@
       </c>
       <c r="H382" s="11"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B383" s="113"/>
+    <row r="383" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B383" s="118"/>
       <c r="H383" s="11"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B384" s="113"/>
+    <row r="384" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B384" s="118"/>
       <c r="C384" s="10" t="s">
         <v>11</v>
       </c>
@@ -7350,7 +7683,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="11"/>
     </row>
-    <row r="385" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B385" s="14"/>
       <c r="C385" s="15"/>
       <c r="D385" s="15"/>
@@ -7359,14 +7692,14 @@
       <c r="G385" s="15"/>
       <c r="H385" s="16"/>
     </row>
-    <row r="386" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B386" s="7"/>
       <c r="C386" s="8"/>
       <c r="D386" s="8"/>
       <c r="H386" s="9"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B387" s="113" t="s">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B387" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D387" s="17" t="s">
@@ -7383,8 +7716,8 @@
       </c>
       <c r="H387" s="11"/>
     </row>
-    <row r="388" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B388" s="113"/>
+    <row r="388" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B388" s="118"/>
       <c r="D388" s="20">
         <v>1</v>
       </c>
@@ -7397,39 +7730,39 @@
       <c r="G388" s="3"/>
       <c r="H388" s="11"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B389" s="113"/>
+    <row r="389" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B389" s="118"/>
       <c r="D389" s="20"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="3"/>
       <c r="H389" s="11"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B390" s="113"/>
+    <row r="390" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B390" s="118"/>
       <c r="D390" s="20"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="3"/>
       <c r="H390" s="11"/>
     </row>
-    <row r="391" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="113"/>
+    <row r="391" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B391" s="118"/>
       <c r="D391" s="21"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="22"/>
       <c r="H391" s="11"/>
     </row>
-    <row r="392" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="113"/>
+    <row r="392" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B392" s="118"/>
       <c r="D392" s="21"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="22"/>
       <c r="H392" s="11"/>
     </row>
-    <row r="393" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B393" s="14"/>
       <c r="C393" s="15"/>
       <c r="D393" s="15"/>
@@ -7438,8 +7771,8 @@
       <c r="G393" s="15"/>
       <c r="H393" s="16"/>
     </row>
-    <row r="395" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="396" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B396" s="7"/>
       <c r="C396" s="8"/>
       <c r="D396" s="8"/>
@@ -7448,8 +7781,8 @@
       <c r="G396" s="8"/>
       <c r="H396" s="9"/>
     </row>
-    <row r="397" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B397" s="113" t="s">
+    <row r="397" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B397" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C397" s="10" t="s">
@@ -7466,12 +7799,12 @@
       </c>
       <c r="H397" s="11"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B398" s="113"/>
+    <row r="398" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B398" s="118"/>
       <c r="H398" s="11"/>
     </row>
-    <row r="399" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B399" s="113"/>
+    <row r="399" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B399" s="118"/>
       <c r="C399" s="10" t="s">
         <v>9</v>
       </c>
@@ -7486,12 +7819,12 @@
       </c>
       <c r="H399" s="11"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B400" s="113"/>
+    <row r="400" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B400" s="118"/>
       <c r="H400" s="11"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B401" s="113"/>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B401" s="118"/>
       <c r="C401" s="10" t="s">
         <v>10</v>
       </c>
@@ -7506,12 +7839,12 @@
       </c>
       <c r="H401" s="11"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B402" s="113"/>
+    <row r="402" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B402" s="118"/>
       <c r="H402" s="11"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B403" s="113"/>
+    <row r="403" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B403" s="118"/>
       <c r="C403" s="10" t="s">
         <v>11</v>
       </c>
@@ -7524,7 +7857,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="11"/>
     </row>
-    <row r="404" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B404" s="14"/>
       <c r="C404" s="15"/>
       <c r="D404" s="15"/>
@@ -7533,14 +7866,14 @@
       <c r="G404" s="15"/>
       <c r="H404" s="16"/>
     </row>
-    <row r="405" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B405" s="7"/>
       <c r="C405" s="8"/>
       <c r="D405" s="8"/>
       <c r="H405" s="9"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B406" s="113" t="s">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B406" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D406" s="17" t="s">
@@ -7557,8 +7890,8 @@
       </c>
       <c r="H406" s="11"/>
     </row>
-    <row r="407" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B407" s="113"/>
+    <row r="407" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B407" s="118"/>
       <c r="D407" s="20">
         <v>1</v>
       </c>
@@ -7571,39 +7904,39 @@
       <c r="G407" s="3"/>
       <c r="H407" s="11"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B408" s="113"/>
+    <row r="408" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B408" s="118"/>
       <c r="D408" s="20"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="3"/>
       <c r="H408" s="11"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B409" s="113"/>
+    <row r="409" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B409" s="118"/>
       <c r="D409" s="20"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="3"/>
       <c r="H409" s="11"/>
     </row>
-    <row r="410" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B410" s="113"/>
+    <row r="410" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B410" s="118"/>
       <c r="D410" s="21"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="22"/>
       <c r="H410" s="11"/>
     </row>
-    <row r="411" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B411" s="113"/>
+    <row r="411" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B411" s="118"/>
       <c r="D411" s="21"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="22"/>
       <c r="H411" s="11"/>
     </row>
-    <row r="412" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B412" s="14"/>
       <c r="C412" s="15"/>
       <c r="D412" s="15"/>
@@ -7612,8 +7945,8 @@
       <c r="G412" s="15"/>
       <c r="H412" s="16"/>
     </row>
-    <row r="414" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="415" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B415" s="7"/>
       <c r="C415" s="8"/>
       <c r="D415" s="8"/>
@@ -7622,8 +7955,8 @@
       <c r="G415" s="8"/>
       <c r="H415" s="9"/>
     </row>
-    <row r="416" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B416" s="113" t="s">
+    <row r="416" spans="2:8" ht="93.6" x14ac:dyDescent="0.6">
+      <c r="B416" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C416" s="10" t="s">
@@ -7640,12 +7973,12 @@
       </c>
       <c r="H416" s="11"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B417" s="113"/>
+    <row r="417" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B417" s="118"/>
       <c r="H417" s="11"/>
     </row>
-    <row r="418" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B418" s="113"/>
+    <row r="418" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B418" s="118"/>
       <c r="C418" s="10" t="s">
         <v>9</v>
       </c>
@@ -7660,12 +7993,12 @@
       </c>
       <c r="H418" s="11"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B419" s="113"/>
+    <row r="419" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B419" s="118"/>
       <c r="H419" s="11"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B420" s="113"/>
+    <row r="420" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B420" s="118"/>
       <c r="C420" s="10" t="s">
         <v>10</v>
       </c>
@@ -7680,12 +8013,12 @@
       </c>
       <c r="H420" s="11"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B421" s="113"/>
+    <row r="421" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B421" s="118"/>
       <c r="H421" s="11"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B422" s="113"/>
+    <row r="422" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B422" s="118"/>
       <c r="C422" s="10" t="s">
         <v>11</v>
       </c>
@@ -7698,7 +8031,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="11"/>
     </row>
-    <row r="423" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B423" s="14"/>
       <c r="C423" s="15"/>
       <c r="D423" s="15"/>
@@ -7707,14 +8040,14 @@
       <c r="G423" s="15"/>
       <c r="H423" s="16"/>
     </row>
-    <row r="424" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B424" s="7"/>
       <c r="C424" s="8"/>
       <c r="D424" s="8"/>
       <c r="H424" s="9"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B425" s="113" t="s">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B425" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D425" s="17" t="s">
@@ -7731,8 +8064,8 @@
       </c>
       <c r="H425" s="11"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B426" s="113"/>
+    <row r="426" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B426" s="118"/>
       <c r="D426" s="20">
         <v>1</v>
       </c>
@@ -7745,39 +8078,39 @@
       <c r="G426" s="3"/>
       <c r="H426" s="11"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B427" s="113"/>
+    <row r="427" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B427" s="118"/>
       <c r="D427" s="20"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
       <c r="G427" s="3"/>
       <c r="H427" s="11"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B428" s="113"/>
+    <row r="428" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B428" s="118"/>
       <c r="D428" s="20"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
       <c r="G428" s="3"/>
       <c r="H428" s="11"/>
     </row>
-    <row r="429" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B429" s="113"/>
+    <row r="429" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B429" s="118"/>
       <c r="D429" s="21"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="22"/>
       <c r="H429" s="11"/>
     </row>
-    <row r="430" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B430" s="113"/>
+    <row r="430" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B430" s="118"/>
       <c r="D430" s="21"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
       <c r="G430" s="22"/>
       <c r="H430" s="11"/>
     </row>
-    <row r="431" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B431" s="14"/>
       <c r="C431" s="15"/>
       <c r="D431" s="15"/>
@@ -7786,8 +8119,8 @@
       <c r="G431" s="15"/>
       <c r="H431" s="16"/>
     </row>
-    <row r="433" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="434" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B434" s="7"/>
       <c r="C434" s="8"/>
       <c r="D434" s="8"/>
@@ -7796,8 +8129,8 @@
       <c r="G434" s="8"/>
       <c r="H434" s="9"/>
     </row>
-    <row r="435" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B435" s="113" t="s">
+    <row r="435" spans="2:8" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="B435" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C435" s="10" t="s">
@@ -7814,12 +8147,12 @@
       </c>
       <c r="H435" s="11"/>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B436" s="113"/>
+    <row r="436" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B436" s="118"/>
       <c r="H436" s="11"/>
     </row>
-    <row r="437" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B437" s="113"/>
+    <row r="437" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B437" s="118"/>
       <c r="C437" s="10" t="s">
         <v>9</v>
       </c>
@@ -7834,12 +8167,12 @@
       </c>
       <c r="H437" s="11"/>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B438" s="113"/>
+    <row r="438" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B438" s="118"/>
       <c r="H438" s="11"/>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B439" s="113"/>
+    <row r="439" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B439" s="118"/>
       <c r="C439" s="10" t="s">
         <v>10</v>
       </c>
@@ -7854,12 +8187,12 @@
       </c>
       <c r="H439" s="11"/>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B440" s="113"/>
+    <row r="440" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B440" s="118"/>
       <c r="H440" s="11"/>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B441" s="113"/>
+    <row r="441" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B441" s="118"/>
       <c r="C441" s="10" t="s">
         <v>11</v>
       </c>
@@ -7872,7 +8205,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="11"/>
     </row>
-    <row r="442" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B442" s="14"/>
       <c r="C442" s="15"/>
       <c r="D442" s="15"/>
@@ -7881,14 +8214,14 @@
       <c r="G442" s="15"/>
       <c r="H442" s="16"/>
     </row>
-    <row r="443" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B443" s="7"/>
       <c r="C443" s="8"/>
       <c r="D443" s="8"/>
       <c r="H443" s="9"/>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B444" s="113" t="s">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B444" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D444" s="17" t="s">
@@ -7905,8 +8238,8 @@
       </c>
       <c r="H444" s="11"/>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B445" s="113"/>
+    <row r="445" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B445" s="118"/>
       <c r="D445" s="20">
         <v>1</v>
       </c>
@@ -7919,39 +8252,39 @@
       <c r="G445" s="3"/>
       <c r="H445" s="11"/>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B446" s="113"/>
+    <row r="446" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B446" s="118"/>
       <c r="D446" s="20"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
       <c r="G446" s="3"/>
       <c r="H446" s="11"/>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B447" s="113"/>
+    <row r="447" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B447" s="118"/>
       <c r="D447" s="20"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
       <c r="G447" s="3"/>
       <c r="H447" s="11"/>
     </row>
-    <row r="448" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="113"/>
+    <row r="448" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B448" s="118"/>
       <c r="D448" s="21"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="22"/>
       <c r="H448" s="11"/>
     </row>
-    <row r="449" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="113"/>
+    <row r="449" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B449" s="118"/>
       <c r="D449" s="21"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="22"/>
       <c r="H449" s="11"/>
     </row>
-    <row r="450" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B450" s="14"/>
       <c r="C450" s="15"/>
       <c r="D450" s="15"/>
@@ -7960,8 +8293,8 @@
       <c r="G450" s="15"/>
       <c r="H450" s="16"/>
     </row>
-    <row r="452" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="453" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="453" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B453" s="7"/>
       <c r="C453" s="8"/>
       <c r="D453" s="8"/>
@@ -7970,8 +8303,8 @@
       <c r="G453" s="8"/>
       <c r="H453" s="9"/>
     </row>
-    <row r="454" spans="2:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B454" s="113" t="s">
+    <row r="454" spans="2:8" ht="109.2" x14ac:dyDescent="0.6">
+      <c r="B454" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C454" s="10" t="s">
@@ -7988,12 +8321,12 @@
       </c>
       <c r="H454" s="11"/>
     </row>
-    <row r="455" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B455" s="113"/>
+    <row r="455" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B455" s="118"/>
       <c r="H455" s="11"/>
     </row>
-    <row r="456" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B456" s="113"/>
+    <row r="456" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B456" s="118"/>
       <c r="C456" s="10" t="s">
         <v>9</v>
       </c>
@@ -8008,12 +8341,12 @@
       </c>
       <c r="H456" s="11"/>
     </row>
-    <row r="457" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B457" s="113"/>
+    <row r="457" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B457" s="118"/>
       <c r="H457" s="11"/>
     </row>
-    <row r="458" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B458" s="113"/>
+    <row r="458" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B458" s="118"/>
       <c r="C458" s="10" t="s">
         <v>10</v>
       </c>
@@ -8028,12 +8361,12 @@
       </c>
       <c r="H458" s="11"/>
     </row>
-    <row r="459" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B459" s="113"/>
+    <row r="459" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B459" s="118"/>
       <c r="H459" s="11"/>
     </row>
-    <row r="460" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B460" s="113"/>
+    <row r="460" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B460" s="118"/>
       <c r="C460" s="10" t="s">
         <v>11</v>
       </c>
@@ -8046,7 +8379,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="11"/>
     </row>
-    <row r="461" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B461" s="14"/>
       <c r="C461" s="15"/>
       <c r="D461" s="15"/>
@@ -8055,14 +8388,14 @@
       <c r="G461" s="15"/>
       <c r="H461" s="16"/>
     </row>
-    <row r="462" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B462" s="7"/>
       <c r="C462" s="8"/>
       <c r="D462" s="8"/>
       <c r="H462" s="9"/>
     </row>
-    <row r="463" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B463" s="113" t="s">
+    <row r="463" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B463" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D463" s="17" t="s">
@@ -8079,8 +8412,8 @@
       </c>
       <c r="H463" s="11"/>
     </row>
-    <row r="464" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B464" s="113"/>
+    <row r="464" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B464" s="118"/>
       <c r="D464" s="20">
         <v>1</v>
       </c>
@@ -8093,8 +8426,8 @@
       <c r="G464" s="3"/>
       <c r="H464" s="11"/>
     </row>
-    <row r="465" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B465" s="113"/>
+    <row r="465" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B465" s="118"/>
       <c r="D465" s="20">
         <v>2</v>
       </c>
@@ -8107,31 +8440,31 @@
       <c r="G465" s="3"/>
       <c r="H465" s="11"/>
     </row>
-    <row r="466" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B466" s="113"/>
+    <row r="466" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B466" s="118"/>
       <c r="D466" s="20"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
       <c r="G466" s="3"/>
       <c r="H466" s="11"/>
     </row>
-    <row r="467" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="113"/>
+    <row r="467" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B467" s="118"/>
       <c r="D467" s="21"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="22"/>
       <c r="H467" s="11"/>
     </row>
-    <row r="468" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B468" s="113"/>
+    <row r="468" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B468" s="118"/>
       <c r="D468" s="21"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="22"/>
       <c r="H468" s="11"/>
     </row>
-    <row r="469" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B469" s="14"/>
       <c r="C469" s="15"/>
       <c r="D469" s="15"/>
@@ -8140,8 +8473,8 @@
       <c r="G469" s="15"/>
       <c r="H469" s="16"/>
     </row>
-    <row r="471" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="472" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="472" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B472" s="7"/>
       <c r="C472" s="8"/>
       <c r="D472" s="8"/>
@@ -8150,8 +8483,8 @@
       <c r="G472" s="8"/>
       <c r="H472" s="9"/>
     </row>
-    <row r="473" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B473" s="113" t="s">
+    <row r="473" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B473" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C473" s="10" t="s">
@@ -8168,12 +8501,12 @@
       </c>
       <c r="H473" s="11"/>
     </row>
-    <row r="474" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B474" s="113"/>
+    <row r="474" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B474" s="118"/>
       <c r="H474" s="11"/>
     </row>
-    <row r="475" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B475" s="113"/>
+    <row r="475" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B475" s="118"/>
       <c r="C475" s="10" t="s">
         <v>9</v>
       </c>
@@ -8188,12 +8521,12 @@
       </c>
       <c r="H475" s="11"/>
     </row>
-    <row r="476" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B476" s="113"/>
+    <row r="476" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B476" s="118"/>
       <c r="H476" s="11"/>
     </row>
-    <row r="477" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B477" s="113"/>
+    <row r="477" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B477" s="118"/>
       <c r="C477" s="10" t="s">
         <v>10</v>
       </c>
@@ -8208,12 +8541,12 @@
       </c>
       <c r="H477" s="11"/>
     </row>
-    <row r="478" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B478" s="113"/>
+    <row r="478" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B478" s="118"/>
       <c r="H478" s="11"/>
     </row>
-    <row r="479" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B479" s="113"/>
+    <row r="479" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B479" s="118"/>
       <c r="C479" s="10" t="s">
         <v>11</v>
       </c>
@@ -8226,7 +8559,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="11"/>
     </row>
-    <row r="480" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B480" s="14"/>
       <c r="C480" s="15"/>
       <c r="D480" s="15"/>
@@ -8235,14 +8568,14 @@
       <c r="G480" s="15"/>
       <c r="H480" s="16"/>
     </row>
-    <row r="481" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B481" s="7"/>
       <c r="C481" s="8"/>
       <c r="D481" s="8"/>
       <c r="H481" s="9"/>
     </row>
-    <row r="482" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B482" s="113" t="s">
+    <row r="482" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B482" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D482" s="17" t="s">
@@ -8259,8 +8592,8 @@
       </c>
       <c r="H482" s="11"/>
     </row>
-    <row r="483" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B483" s="113"/>
+    <row r="483" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B483" s="118"/>
       <c r="D483" s="20">
         <v>1</v>
       </c>
@@ -8273,39 +8606,39 @@
       <c r="G483" s="3"/>
       <c r="H483" s="11"/>
     </row>
-    <row r="484" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B484" s="113"/>
+    <row r="484" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B484" s="118"/>
       <c r="D484" s="20"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="3"/>
       <c r="H484" s="11"/>
     </row>
-    <row r="485" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B485" s="113"/>
+    <row r="485" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B485" s="118"/>
       <c r="D485" s="20"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
       <c r="G485" s="3"/>
       <c r="H485" s="11"/>
     </row>
-    <row r="486" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B486" s="113"/>
+    <row r="486" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B486" s="118"/>
       <c r="D486" s="21"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="22"/>
       <c r="H486" s="11"/>
     </row>
-    <row r="487" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="113"/>
+    <row r="487" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B487" s="118"/>
       <c r="D487" s="21"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="22"/>
       <c r="H487" s="11"/>
     </row>
-    <row r="488" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B488" s="14"/>
       <c r="C488" s="15"/>
       <c r="D488" s="15"/>
@@ -8314,8 +8647,8 @@
       <c r="G488" s="15"/>
       <c r="H488" s="16"/>
     </row>
-    <row r="490" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="491" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="491" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B491" s="7"/>
       <c r="C491" s="8"/>
       <c r="D491" s="8"/>
@@ -8324,8 +8657,8 @@
       <c r="G491" s="8"/>
       <c r="H491" s="9"/>
     </row>
-    <row r="492" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B492" s="113" t="s">
+    <row r="492" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B492" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C492" s="10" t="s">
@@ -8342,12 +8675,12 @@
       </c>
       <c r="H492" s="11"/>
     </row>
-    <row r="493" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B493" s="113"/>
+    <row r="493" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B493" s="118"/>
       <c r="H493" s="11"/>
     </row>
-    <row r="494" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B494" s="113"/>
+    <row r="494" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B494" s="118"/>
       <c r="C494" s="10" t="s">
         <v>9</v>
       </c>
@@ -8362,12 +8695,12 @@
       </c>
       <c r="H494" s="11"/>
     </row>
-    <row r="495" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B495" s="113"/>
+    <row r="495" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B495" s="118"/>
       <c r="H495" s="11"/>
     </row>
-    <row r="496" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B496" s="113"/>
+    <row r="496" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B496" s="118"/>
       <c r="C496" s="10" t="s">
         <v>10</v>
       </c>
@@ -8382,12 +8715,12 @@
       </c>
       <c r="H496" s="11"/>
     </row>
-    <row r="497" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B497" s="113"/>
+    <row r="497" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B497" s="118"/>
       <c r="H497" s="11"/>
     </row>
-    <row r="498" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B498" s="113"/>
+    <row r="498" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B498" s="118"/>
       <c r="C498" s="10" t="s">
         <v>11</v>
       </c>
@@ -8400,7 +8733,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="11"/>
     </row>
-    <row r="499" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B499" s="14"/>
       <c r="C499" s="15"/>
       <c r="D499" s="15"/>
@@ -8409,14 +8742,14 @@
       <c r="G499" s="15"/>
       <c r="H499" s="16"/>
     </row>
-    <row r="500" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B500" s="7"/>
       <c r="C500" s="8"/>
       <c r="D500" s="8"/>
       <c r="H500" s="9"/>
     </row>
-    <row r="501" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B501" s="113" t="s">
+    <row r="501" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B501" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D501" s="17" t="s">
@@ -8433,8 +8766,8 @@
       </c>
       <c r="H501" s="11"/>
     </row>
-    <row r="502" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B502" s="113"/>
+    <row r="502" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B502" s="118"/>
       <c r="D502" s="20">
         <v>1</v>
       </c>
@@ -8447,39 +8780,39 @@
       <c r="G502" s="3"/>
       <c r="H502" s="11"/>
     </row>
-    <row r="503" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B503" s="113"/>
+    <row r="503" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B503" s="118"/>
       <c r="D503" s="20"/>
       <c r="E503" s="1"/>
       <c r="F503" s="1"/>
       <c r="G503" s="3"/>
       <c r="H503" s="11"/>
     </row>
-    <row r="504" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B504" s="113"/>
+    <row r="504" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B504" s="118"/>
       <c r="D504" s="20"/>
       <c r="E504" s="1"/>
       <c r="F504" s="1"/>
       <c r="G504" s="3"/>
       <c r="H504" s="11"/>
     </row>
-    <row r="505" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B505" s="113"/>
+    <row r="505" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B505" s="118"/>
       <c r="D505" s="21"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="22"/>
       <c r="H505" s="11"/>
     </row>
-    <row r="506" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="113"/>
+    <row r="506" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B506" s="118"/>
       <c r="D506" s="21"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="22"/>
       <c r="H506" s="11"/>
     </row>
-    <row r="507" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B507" s="14"/>
       <c r="C507" s="15"/>
       <c r="D507" s="15"/>
@@ -8488,8 +8821,8 @@
       <c r="G507" s="15"/>
       <c r="H507" s="16"/>
     </row>
-    <row r="509" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="510" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="510" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B510" s="7"/>
       <c r="C510" s="8"/>
       <c r="D510" s="8"/>
@@ -8498,8 +8831,8 @@
       <c r="G510" s="8"/>
       <c r="H510" s="9"/>
     </row>
-    <row r="511" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B511" s="113" t="s">
+    <row r="511" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B511" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C511" s="10" t="s">
@@ -8516,12 +8849,12 @@
       </c>
       <c r="H511" s="11"/>
     </row>
-    <row r="512" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B512" s="113"/>
+    <row r="512" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B512" s="118"/>
       <c r="H512" s="11"/>
     </row>
-    <row r="513" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B513" s="113"/>
+    <row r="513" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B513" s="118"/>
       <c r="C513" s="10" t="s">
         <v>9</v>
       </c>
@@ -8536,12 +8869,12 @@
       </c>
       <c r="H513" s="11"/>
     </row>
-    <row r="514" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B514" s="113"/>
+    <row r="514" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B514" s="118"/>
       <c r="H514" s="11"/>
     </row>
-    <row r="515" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B515" s="113"/>
+    <row r="515" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B515" s="118"/>
       <c r="C515" s="10" t="s">
         <v>10</v>
       </c>
@@ -8556,12 +8889,12 @@
       </c>
       <c r="H515" s="11"/>
     </row>
-    <row r="516" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B516" s="113"/>
+    <row r="516" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B516" s="118"/>
       <c r="H516" s="11"/>
     </row>
-    <row r="517" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B517" s="113"/>
+    <row r="517" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B517" s="118"/>
       <c r="C517" s="10" t="s">
         <v>11</v>
       </c>
@@ -8574,7 +8907,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="11"/>
     </row>
-    <row r="518" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B518" s="14"/>
       <c r="C518" s="15"/>
       <c r="D518" s="15"/>
@@ -8583,14 +8916,14 @@
       <c r="G518" s="15"/>
       <c r="H518" s="16"/>
     </row>
-    <row r="519" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B519" s="7"/>
       <c r="C519" s="8"/>
       <c r="D519" s="8"/>
       <c r="H519" s="9"/>
     </row>
-    <row r="520" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B520" s="113" t="s">
+    <row r="520" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B520" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D520" s="17" t="s">
@@ -8607,8 +8940,8 @@
       </c>
       <c r="H520" s="11"/>
     </row>
-    <row r="521" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B521" s="113"/>
+    <row r="521" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B521" s="118"/>
       <c r="D521" s="20">
         <v>1</v>
       </c>
@@ -8623,39 +8956,39 @@
       </c>
       <c r="H521" s="11"/>
     </row>
-    <row r="522" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B522" s="113"/>
+    <row r="522" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B522" s="118"/>
       <c r="D522" s="20"/>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="3"/>
       <c r="H522" s="11"/>
     </row>
-    <row r="523" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B523" s="113"/>
+    <row r="523" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B523" s="118"/>
       <c r="D523" s="20"/>
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="3"/>
       <c r="H523" s="11"/>
     </row>
-    <row r="524" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B524" s="113"/>
+    <row r="524" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B524" s="118"/>
       <c r="D524" s="21"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="22"/>
       <c r="H524" s="11"/>
     </row>
-    <row r="525" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B525" s="113"/>
+    <row r="525" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B525" s="118"/>
       <c r="D525" s="21"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="22"/>
       <c r="H525" s="11"/>
     </row>
-    <row r="526" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B526" s="14"/>
       <c r="C526" s="15"/>
       <c r="D526" s="15"/>
@@ -8664,8 +8997,8 @@
       <c r="G526" s="15"/>
       <c r="H526" s="16"/>
     </row>
-    <row r="529" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="530" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="530" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B530" s="7"/>
       <c r="C530" s="8"/>
       <c r="D530" s="8"/>
@@ -8674,8 +9007,8 @@
       <c r="G530" s="8"/>
       <c r="H530" s="9"/>
     </row>
-    <row r="531" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B531" s="113" t="s">
+    <row r="531" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B531" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C531" s="10" t="s">
@@ -8692,12 +9025,12 @@
       </c>
       <c r="H531" s="11"/>
     </row>
-    <row r="532" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B532" s="113"/>
+    <row r="532" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B532" s="118"/>
       <c r="H532" s="11"/>
     </row>
-    <row r="533" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B533" s="113"/>
+    <row r="533" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B533" s="118"/>
       <c r="C533" s="10" t="s">
         <v>9</v>
       </c>
@@ -8712,12 +9045,12 @@
       </c>
       <c r="H533" s="11"/>
     </row>
-    <row r="534" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B534" s="113"/>
+    <row r="534" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B534" s="118"/>
       <c r="H534" s="11"/>
     </row>
-    <row r="535" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B535" s="113"/>
+    <row r="535" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B535" s="118"/>
       <c r="C535" s="10" t="s">
         <v>10</v>
       </c>
@@ -8732,12 +9065,12 @@
       </c>
       <c r="H535" s="11"/>
     </row>
-    <row r="536" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B536" s="113"/>
+    <row r="536" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B536" s="118"/>
       <c r="H536" s="11"/>
     </row>
-    <row r="537" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B537" s="113"/>
+    <row r="537" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B537" s="118"/>
       <c r="C537" s="10" t="s">
         <v>11</v>
       </c>
@@ -8750,7 +9083,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="11"/>
     </row>
-    <row r="538" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B538" s="14"/>
       <c r="C538" s="15"/>
       <c r="D538" s="15"/>
@@ -8759,14 +9092,14 @@
       <c r="G538" s="15"/>
       <c r="H538" s="16"/>
     </row>
-    <row r="539" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B539" s="7"/>
       <c r="C539" s="8"/>
       <c r="D539" s="8"/>
       <c r="H539" s="9"/>
     </row>
-    <row r="540" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B540" s="113" t="s">
+    <row r="540" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B540" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D540" s="17" t="s">
@@ -8783,8 +9116,8 @@
       </c>
       <c r="H540" s="11"/>
     </row>
-    <row r="541" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B541" s="113"/>
+    <row r="541" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B541" s="118"/>
       <c r="D541" s="20">
         <v>1</v>
       </c>
@@ -8799,39 +9132,39 @@
       </c>
       <c r="H541" s="11"/>
     </row>
-    <row r="542" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B542" s="113"/>
+    <row r="542" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B542" s="118"/>
       <c r="D542" s="20"/>
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="3"/>
       <c r="H542" s="11"/>
     </row>
-    <row r="543" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B543" s="113"/>
+    <row r="543" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B543" s="118"/>
       <c r="D543" s="20"/>
       <c r="E543" s="1"/>
       <c r="F543" s="1"/>
       <c r="G543" s="3"/>
       <c r="H543" s="11"/>
     </row>
-    <row r="544" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B544" s="113"/>
+    <row r="544" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B544" s="118"/>
       <c r="D544" s="21"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="22"/>
       <c r="H544" s="11"/>
     </row>
-    <row r="545" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B545" s="113"/>
+    <row r="545" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B545" s="118"/>
       <c r="D545" s="21"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="22"/>
       <c r="H545" s="11"/>
     </row>
-    <row r="546" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B546" s="14"/>
       <c r="C546" s="15"/>
       <c r="D546" s="15"/>
@@ -8840,8 +9173,8 @@
       <c r="G546" s="15"/>
       <c r="H546" s="16"/>
     </row>
-    <row r="548" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="549" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="549" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B549" s="7"/>
       <c r="C549" s="8"/>
       <c r="D549" s="8"/>
@@ -8850,8 +9183,8 @@
       <c r="G549" s="8"/>
       <c r="H549" s="9"/>
     </row>
-    <row r="550" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B550" s="113" t="s">
+    <row r="550" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B550" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C550" s="10" t="s">
@@ -8868,12 +9201,12 @@
       </c>
       <c r="H550" s="11"/>
     </row>
-    <row r="551" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B551" s="113"/>
+    <row r="551" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B551" s="118"/>
       <c r="H551" s="11"/>
     </row>
-    <row r="552" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B552" s="113"/>
+    <row r="552" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B552" s="118"/>
       <c r="C552" s="10" t="s">
         <v>9</v>
       </c>
@@ -8888,12 +9221,12 @@
       </c>
       <c r="H552" s="11"/>
     </row>
-    <row r="553" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B553" s="113"/>
+    <row r="553" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B553" s="118"/>
       <c r="H553" s="11"/>
     </row>
-    <row r="554" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B554" s="113"/>
+    <row r="554" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B554" s="118"/>
       <c r="C554" s="10" t="s">
         <v>10</v>
       </c>
@@ -8908,12 +9241,12 @@
       </c>
       <c r="H554" s="11"/>
     </row>
-    <row r="555" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B555" s="113"/>
+    <row r="555" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B555" s="118"/>
       <c r="H555" s="11"/>
     </row>
-    <row r="556" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B556" s="113"/>
+    <row r="556" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B556" s="118"/>
       <c r="C556" s="10" t="s">
         <v>11</v>
       </c>
@@ -8926,7 +9259,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="11"/>
     </row>
-    <row r="557" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B557" s="14"/>
       <c r="C557" s="15"/>
       <c r="D557" s="15"/>
@@ -8935,14 +9268,14 @@
       <c r="G557" s="15"/>
       <c r="H557" s="16"/>
     </row>
-    <row r="558" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B558" s="7"/>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
       <c r="H558" s="9"/>
     </row>
-    <row r="559" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B559" s="113" t="s">
+    <row r="559" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B559" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D559" s="17" t="s">
@@ -8959,8 +9292,8 @@
       </c>
       <c r="H559" s="11"/>
     </row>
-    <row r="560" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B560" s="113"/>
+    <row r="560" spans="2:8" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="B560" s="118"/>
       <c r="D560" s="20">
         <v>1</v>
       </c>
@@ -8975,39 +9308,39 @@
       </c>
       <c r="H560" s="11"/>
     </row>
-    <row r="561" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B561" s="113"/>
+    <row r="561" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B561" s="118"/>
       <c r="D561" s="20"/>
       <c r="E561" s="1"/>
       <c r="F561" s="1"/>
       <c r="G561" s="3"/>
       <c r="H561" s="11"/>
     </row>
-    <row r="562" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B562" s="113"/>
+    <row r="562" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B562" s="118"/>
       <c r="D562" s="20"/>
       <c r="E562" s="1"/>
       <c r="F562" s="1"/>
       <c r="G562" s="3"/>
       <c r="H562" s="11"/>
     </row>
-    <row r="563" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B563" s="113"/>
+    <row r="563" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B563" s="118"/>
       <c r="D563" s="21"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="22"/>
       <c r="H563" s="11"/>
     </row>
-    <row r="564" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B564" s="113"/>
+    <row r="564" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B564" s="118"/>
       <c r="D564" s="21"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="G564" s="22"/>
       <c r="H564" s="11"/>
     </row>
-    <row r="565" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B565" s="14"/>
       <c r="C565" s="15"/>
       <c r="D565" s="15"/>
@@ -9016,8 +9349,8 @@
       <c r="G565" s="15"/>
       <c r="H565" s="16"/>
     </row>
-    <row r="567" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="568" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="568" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B568" s="7"/>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -9026,8 +9359,8 @@
       <c r="G568" s="8"/>
       <c r="H568" s="9"/>
     </row>
-    <row r="569" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="B569" s="113" t="s">
+    <row r="569" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B569" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C569" s="10" t="s">
@@ -9044,12 +9377,12 @@
       </c>
       <c r="H569" s="11"/>
     </row>
-    <row r="570" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B570" s="113"/>
+    <row r="570" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B570" s="118"/>
       <c r="H570" s="11"/>
     </row>
-    <row r="571" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B571" s="113"/>
+    <row r="571" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B571" s="118"/>
       <c r="C571" s="10" t="s">
         <v>9</v>
       </c>
@@ -9064,12 +9397,12 @@
       </c>
       <c r="H571" s="11"/>
     </row>
-    <row r="572" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B572" s="113"/>
+    <row r="572" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B572" s="118"/>
       <c r="H572" s="11"/>
     </row>
-    <row r="573" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B573" s="113"/>
+    <row r="573" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B573" s="118"/>
       <c r="C573" s="10" t="s">
         <v>10</v>
       </c>
@@ -9084,12 +9417,12 @@
       </c>
       <c r="H573" s="11"/>
     </row>
-    <row r="574" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B574" s="113"/>
+    <row r="574" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B574" s="118"/>
       <c r="H574" s="11"/>
     </row>
-    <row r="575" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B575" s="113"/>
+    <row r="575" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B575" s="118"/>
       <c r="C575" s="10" t="s">
         <v>11</v>
       </c>
@@ -9102,7 +9435,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="11"/>
     </row>
-    <row r="576" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B576" s="14"/>
       <c r="C576" s="15"/>
       <c r="D576" s="15"/>
@@ -9111,14 +9444,14 @@
       <c r="G576" s="15"/>
       <c r="H576" s="16"/>
     </row>
-    <row r="577" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B577" s="7"/>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
       <c r="H577" s="9"/>
     </row>
-    <row r="578" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B578" s="113" t="s">
+    <row r="578" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B578" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D578" s="17" t="s">
@@ -9135,8 +9468,8 @@
       </c>
       <c r="H578" s="11"/>
     </row>
-    <row r="579" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B579" s="113"/>
+    <row r="579" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B579" s="118"/>
       <c r="D579" s="20">
         <v>1</v>
       </c>
@@ -9151,39 +9484,39 @@
       </c>
       <c r="H579" s="11"/>
     </row>
-    <row r="580" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B580" s="113"/>
+    <row r="580" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B580" s="118"/>
       <c r="D580" s="20"/>
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="3"/>
       <c r="H580" s="11"/>
     </row>
-    <row r="581" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B581" s="113"/>
+    <row r="581" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B581" s="118"/>
       <c r="D581" s="20"/>
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="3"/>
       <c r="H581" s="11"/>
     </row>
-    <row r="582" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B582" s="113"/>
+    <row r="582" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B582" s="118"/>
       <c r="D582" s="21"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="22"/>
       <c r="H582" s="11"/>
     </row>
-    <row r="583" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B583" s="113"/>
+    <row r="583" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B583" s="118"/>
       <c r="D583" s="21"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="22"/>
       <c r="H583" s="11"/>
     </row>
-    <row r="584" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B584" s="14"/>
       <c r="C584" s="15"/>
       <c r="D584" s="15"/>
@@ -9192,8 +9525,898 @@
       <c r="G584" s="15"/>
       <c r="H584" s="16"/>
     </row>
+    <row r="585" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="586" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B586" s="7"/>
+      <c r="C586" s="8"/>
+      <c r="D586" s="8"/>
+      <c r="E586" s="8"/>
+      <c r="F586" s="8"/>
+      <c r="G586" s="8"/>
+      <c r="H586" s="9"/>
+    </row>
+    <row r="587" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B587" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D587" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F587" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G587" s="44">
+        <v>93</v>
+      </c>
+      <c r="H587" s="11"/>
+    </row>
+    <row r="588" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B588" s="118"/>
+      <c r="H588" s="11"/>
+    </row>
+    <row r="589" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B589" s="118"/>
+      <c r="C589" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F589" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G589" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="H589" s="11"/>
+    </row>
+    <row r="590" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B590" s="118"/>
+      <c r="H590" s="11"/>
+    </row>
+    <row r="591" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B591" s="118"/>
+      <c r="C591" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F591" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H591" s="11"/>
+    </row>
+    <row r="592" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B592" s="118"/>
+      <c r="H592" s="11"/>
+    </row>
+    <row r="593" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B593" s="118"/>
+      <c r="C593" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D593" s="12">
+        <v>44989</v>
+      </c>
+      <c r="F593" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G593" s="1"/>
+      <c r="H593" s="11"/>
+    </row>
+    <row r="594" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B594" s="14"/>
+      <c r="C594" s="15"/>
+      <c r="D594" s="15"/>
+      <c r="E594" s="15"/>
+      <c r="F594" s="15"/>
+      <c r="G594" s="15"/>
+      <c r="H594" s="16"/>
+    </row>
+    <row r="595" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B595" s="7"/>
+      <c r="C595" s="8"/>
+      <c r="D595" s="8"/>
+      <c r="H595" s="9"/>
+    </row>
+    <row r="596" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B596" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D596" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E596" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F596" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G596" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H596" s="11"/>
+    </row>
+    <row r="597" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B597" s="118"/>
+      <c r="D597" s="20">
+        <v>1</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H597" s="11"/>
+    </row>
+    <row r="598" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B598" s="118"/>
+      <c r="D598" s="20"/>
+      <c r="E598" s="1"/>
+      <c r="F598" s="1"/>
+      <c r="G598" s="3"/>
+      <c r="H598" s="11"/>
+    </row>
+    <row r="599" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B599" s="118"/>
+      <c r="D599" s="20"/>
+      <c r="E599" s="1"/>
+      <c r="F599" s="1"/>
+      <c r="G599" s="3"/>
+      <c r="H599" s="11"/>
+    </row>
+    <row r="600" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B600" s="118"/>
+      <c r="D600" s="21"/>
+      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
+      <c r="G600" s="22"/>
+      <c r="H600" s="11"/>
+    </row>
+    <row r="601" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B601" s="118"/>
+      <c r="D601" s="21"/>
+      <c r="E601" s="2"/>
+      <c r="F601" s="2"/>
+      <c r="G601" s="22"/>
+      <c r="H601" s="11"/>
+    </row>
+    <row r="602" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B602" s="14"/>
+      <c r="C602" s="15"/>
+      <c r="D602" s="15"/>
+      <c r="E602" s="15"/>
+      <c r="F602" s="15"/>
+      <c r="G602" s="15"/>
+      <c r="H602" s="16"/>
+    </row>
+    <row r="603" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="604" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B604" s="7"/>
+      <c r="C604" s="8"/>
+      <c r="D604" s="8"/>
+      <c r="E604" s="8"/>
+      <c r="F604" s="8"/>
+      <c r="G604" s="8"/>
+      <c r="H604" s="9"/>
+    </row>
+    <row r="605" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B605" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F605" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G605" s="44">
+        <v>94</v>
+      </c>
+      <c r="H605" s="11"/>
+    </row>
+    <row r="606" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B606" s="118"/>
+      <c r="H606" s="11"/>
+    </row>
+    <row r="607" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B607" s="118"/>
+      <c r="C607" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F607" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G607" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="H607" s="11"/>
+    </row>
+    <row r="608" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B608" s="118"/>
+      <c r="H608" s="11"/>
+    </row>
+    <row r="609" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B609" s="118"/>
+      <c r="C609" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F609" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H609" s="11"/>
+    </row>
+    <row r="610" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B610" s="118"/>
+      <c r="H610" s="11"/>
+    </row>
+    <row r="611" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B611" s="118"/>
+      <c r="C611" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D611" s="12">
+        <v>44989</v>
+      </c>
+      <c r="F611" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G611" s="1"/>
+      <c r="H611" s="11"/>
+    </row>
+    <row r="612" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B612" s="14"/>
+      <c r="C612" s="15"/>
+      <c r="D612" s="15"/>
+      <c r="E612" s="15"/>
+      <c r="F612" s="15"/>
+      <c r="G612" s="15"/>
+      <c r="H612" s="16"/>
+    </row>
+    <row r="613" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B613" s="7"/>
+      <c r="C613" s="8"/>
+      <c r="D613" s="8"/>
+      <c r="H613" s="9"/>
+    </row>
+    <row r="614" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B614" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D614" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E614" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F614" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G614" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H614" s="11"/>
+    </row>
+    <row r="615" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B615" s="118"/>
+      <c r="D615" s="20">
+        <v>1</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H615" s="11"/>
+    </row>
+    <row r="616" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B616" s="118"/>
+      <c r="D616" s="20"/>
+      <c r="E616" s="1"/>
+      <c r="F616" s="1"/>
+      <c r="G616" s="3"/>
+      <c r="H616" s="11"/>
+    </row>
+    <row r="617" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B617" s="118"/>
+      <c r="D617" s="20"/>
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
+      <c r="G617" s="3"/>
+      <c r="H617" s="11"/>
+    </row>
+    <row r="618" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B618" s="118"/>
+      <c r="D618" s="21"/>
+      <c r="E618" s="2"/>
+      <c r="F618" s="2"/>
+      <c r="G618" s="22"/>
+      <c r="H618" s="11"/>
+    </row>
+    <row r="619" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B619" s="118"/>
+      <c r="D619" s="21"/>
+      <c r="E619" s="2"/>
+      <c r="F619" s="2"/>
+      <c r="G619" s="22"/>
+      <c r="H619" s="11"/>
+    </row>
+    <row r="620" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B620" s="14"/>
+      <c r="C620" s="15"/>
+      <c r="D620" s="15"/>
+      <c r="E620" s="15"/>
+      <c r="F620" s="15"/>
+      <c r="G620" s="15"/>
+      <c r="H620" s="16"/>
+    </row>
+    <row r="621" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="622" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B622" s="7"/>
+      <c r="C622" s="8"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+      <c r="F622" s="8"/>
+      <c r="G622" s="8"/>
+      <c r="H622" s="9"/>
+    </row>
+    <row r="623" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B623" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D623" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F623" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G623" s="44">
+        <v>95</v>
+      </c>
+      <c r="H623" s="11"/>
+    </row>
+    <row r="624" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B624" s="118"/>
+      <c r="H624" s="11"/>
+    </row>
+    <row r="625" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B625" s="118"/>
+      <c r="C625" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F625" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G625" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="H625" s="11"/>
+    </row>
+    <row r="626" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B626" s="118"/>
+      <c r="H626" s="11"/>
+    </row>
+    <row r="627" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B627" s="118"/>
+      <c r="C627" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F627" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H627" s="11"/>
+    </row>
+    <row r="628" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B628" s="118"/>
+      <c r="H628" s="11"/>
+    </row>
+    <row r="629" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B629" s="118"/>
+      <c r="C629" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D629" s="12">
+        <v>44989</v>
+      </c>
+      <c r="F629" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G629" s="1"/>
+      <c r="H629" s="11"/>
+    </row>
+    <row r="630" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B630" s="14"/>
+      <c r="C630" s="15"/>
+      <c r="D630" s="15"/>
+      <c r="E630" s="15"/>
+      <c r="F630" s="15"/>
+      <c r="G630" s="15"/>
+      <c r="H630" s="16"/>
+    </row>
+    <row r="631" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B631" s="7"/>
+      <c r="C631" s="8"/>
+      <c r="D631" s="8"/>
+      <c r="H631" s="9"/>
+    </row>
+    <row r="632" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B632" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D632" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E632" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F632" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G632" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H632" s="11"/>
+    </row>
+    <row r="633" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B633" s="118"/>
+      <c r="D633" s="20">
+        <v>1</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H633" s="11"/>
+    </row>
+    <row r="634" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B634" s="118"/>
+      <c r="D634" s="20"/>
+      <c r="E634" s="1"/>
+      <c r="F634" s="1"/>
+      <c r="G634" s="3"/>
+      <c r="H634" s="11"/>
+    </row>
+    <row r="635" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B635" s="118"/>
+      <c r="D635" s="20"/>
+      <c r="E635" s="1"/>
+      <c r="F635" s="1"/>
+      <c r="G635" s="3"/>
+      <c r="H635" s="11"/>
+    </row>
+    <row r="636" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B636" s="118"/>
+      <c r="D636" s="21"/>
+      <c r="E636" s="2"/>
+      <c r="F636" s="2"/>
+      <c r="G636" s="22"/>
+      <c r="H636" s="11"/>
+    </row>
+    <row r="637" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B637" s="118"/>
+      <c r="D637" s="21"/>
+      <c r="E637" s="2"/>
+      <c r="F637" s="2"/>
+      <c r="G637" s="22"/>
+      <c r="H637" s="11"/>
+    </row>
+    <row r="638" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B638" s="14"/>
+      <c r="C638" s="15"/>
+      <c r="D638" s="15"/>
+      <c r="E638" s="15"/>
+      <c r="F638" s="15"/>
+      <c r="G638" s="15"/>
+      <c r="H638" s="16"/>
+    </row>
+    <row r="639" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="640" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B640" s="7"/>
+      <c r="C640" s="8"/>
+      <c r="D640" s="8"/>
+      <c r="E640" s="8"/>
+      <c r="F640" s="8"/>
+      <c r="G640" s="8"/>
+      <c r="H640" s="9"/>
+    </row>
+    <row r="641" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B641" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D641" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F641" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G641" s="44">
+        <v>96</v>
+      </c>
+      <c r="H641" s="11"/>
+    </row>
+    <row r="642" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B642" s="118"/>
+      <c r="H642" s="11"/>
+    </row>
+    <row r="643" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B643" s="118"/>
+      <c r="C643" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F643" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G643" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="H643" s="11"/>
+    </row>
+    <row r="644" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B644" s="118"/>
+      <c r="H644" s="11"/>
+    </row>
+    <row r="645" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B645" s="118"/>
+      <c r="C645" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F645" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H645" s="11"/>
+    </row>
+    <row r="646" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B646" s="118"/>
+      <c r="H646" s="11"/>
+    </row>
+    <row r="647" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B647" s="118"/>
+      <c r="C647" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D647" s="12">
+        <v>44989</v>
+      </c>
+      <c r="F647" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G647" s="1"/>
+      <c r="H647" s="11"/>
+    </row>
+    <row r="648" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B648" s="14"/>
+      <c r="C648" s="15"/>
+      <c r="D648" s="15"/>
+      <c r="E648" s="15"/>
+      <c r="F648" s="15"/>
+      <c r="G648" s="15"/>
+      <c r="H648" s="16"/>
+    </row>
+    <row r="649" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B649" s="7"/>
+      <c r="C649" s="8"/>
+      <c r="D649" s="8"/>
+      <c r="H649" s="9"/>
+    </row>
+    <row r="650" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B650" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D650" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E650" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F650" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G650" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H650" s="11"/>
+    </row>
+    <row r="651" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B651" s="118"/>
+      <c r="D651" s="20">
+        <v>1</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H651" s="11"/>
+    </row>
+    <row r="652" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B652" s="118"/>
+      <c r="D652" s="20"/>
+      <c r="E652" s="1"/>
+      <c r="F652" s="1"/>
+      <c r="G652" s="3"/>
+      <c r="H652" s="11"/>
+    </row>
+    <row r="653" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B653" s="118"/>
+      <c r="D653" s="20"/>
+      <c r="E653" s="1"/>
+      <c r="F653" s="1"/>
+      <c r="G653" s="3"/>
+      <c r="H653" s="11"/>
+    </row>
+    <row r="654" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B654" s="118"/>
+      <c r="D654" s="21"/>
+      <c r="E654" s="2"/>
+      <c r="F654" s="2"/>
+      <c r="G654" s="22"/>
+      <c r="H654" s="11"/>
+    </row>
+    <row r="655" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B655" s="118"/>
+      <c r="D655" s="21"/>
+      <c r="E655" s="2"/>
+      <c r="F655" s="2"/>
+      <c r="G655" s="22"/>
+      <c r="H655" s="11"/>
+    </row>
+    <row r="656" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B656" s="14"/>
+      <c r="C656" s="15"/>
+      <c r="D656" s="15"/>
+      <c r="E656" s="15"/>
+      <c r="F656" s="15"/>
+      <c r="G656" s="15"/>
+      <c r="H656" s="16"/>
+    </row>
+    <row r="657" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="658" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B658" s="7"/>
+      <c r="C658" s="8"/>
+      <c r="D658" s="8"/>
+      <c r="E658" s="8"/>
+      <c r="F658" s="8"/>
+      <c r="G658" s="8"/>
+      <c r="H658" s="9"/>
+    </row>
+    <row r="659" spans="2:8" ht="62.4" x14ac:dyDescent="0.6">
+      <c r="B659" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F659" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G659" s="44">
+        <v>97</v>
+      </c>
+      <c r="H659" s="11"/>
+    </row>
+    <row r="660" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B660" s="118"/>
+      <c r="H660" s="11"/>
+    </row>
+    <row r="661" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B661" s="118"/>
+      <c r="C661" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F661" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G661" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="H661" s="11"/>
+    </row>
+    <row r="662" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B662" s="118"/>
+      <c r="H662" s="11"/>
+    </row>
+    <row r="663" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B663" s="118"/>
+      <c r="C663" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F663" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H663" s="11"/>
+    </row>
+    <row r="664" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B664" s="118"/>
+      <c r="H664" s="11"/>
+    </row>
+    <row r="665" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B665" s="118"/>
+      <c r="C665" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D665" s="12">
+        <v>44989</v>
+      </c>
+      <c r="F665" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G665" s="1"/>
+      <c r="H665" s="11"/>
+    </row>
+    <row r="666" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B666" s="14"/>
+      <c r="C666" s="15"/>
+      <c r="D666" s="15"/>
+      <c r="E666" s="15"/>
+      <c r="F666" s="15"/>
+      <c r="G666" s="15"/>
+      <c r="H666" s="16"/>
+    </row>
+    <row r="667" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B667" s="7"/>
+      <c r="C667" s="8"/>
+      <c r="D667" s="8"/>
+      <c r="H667" s="9"/>
+    </row>
+    <row r="668" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B668" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D668" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E668" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F668" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G668" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H668" s="11"/>
+    </row>
+    <row r="669" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B669" s="118"/>
+      <c r="D669" s="20">
+        <v>1</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H669" s="11"/>
+    </row>
+    <row r="670" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B670" s="118"/>
+      <c r="D670" s="20"/>
+      <c r="E670" s="1"/>
+      <c r="F670" s="1"/>
+      <c r="G670" s="3"/>
+      <c r="H670" s="11"/>
+    </row>
+    <row r="671" spans="2:8" x14ac:dyDescent="0.6">
+      <c r="B671" s="118"/>
+      <c r="D671" s="20"/>
+      <c r="E671" s="1"/>
+      <c r="F671" s="1"/>
+      <c r="G671" s="3"/>
+      <c r="H671" s="11"/>
+    </row>
+    <row r="672" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B672" s="118"/>
+      <c r="D672" s="21"/>
+      <c r="E672" s="2"/>
+      <c r="F672" s="2"/>
+      <c r="G672" s="22"/>
+      <c r="H672" s="11"/>
+    </row>
+    <row r="673" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B673" s="118"/>
+      <c r="D673" s="21"/>
+      <c r="E673" s="2"/>
+      <c r="F673" s="2"/>
+      <c r="G673" s="22"/>
+      <c r="H673" s="11"/>
+    </row>
+    <row r="674" spans="2:8" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B674" s="14"/>
+      <c r="C674" s="15"/>
+      <c r="D674" s="15"/>
+      <c r="E674" s="15"/>
+      <c r="F674" s="15"/>
+      <c r="G674" s="15"/>
+      <c r="H674" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="75">
+    <mergeCell ref="B668:B673"/>
+    <mergeCell ref="B623:B629"/>
+    <mergeCell ref="B632:B637"/>
+    <mergeCell ref="B641:B647"/>
+    <mergeCell ref="B650:B655"/>
+    <mergeCell ref="B659:B665"/>
+    <mergeCell ref="B587:B593"/>
+    <mergeCell ref="B596:B601"/>
+    <mergeCell ref="B605:B611"/>
+    <mergeCell ref="B614:B619"/>
     <mergeCell ref="B540:B545"/>
     <mergeCell ref="B550:B556"/>
     <mergeCell ref="B559:B564"/>
